--- a/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.525680057419663</v>
+        <v>3.525680057419379</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2004738522379768</v>
+        <v>0.2004738522381047</v>
       </c>
       <c r="E2">
-        <v>0.360530073780275</v>
+        <v>0.3605300737803034</v>
       </c>
       <c r="F2">
         <v>3.866391350524282</v>
@@ -430,16 +430,16 @@
         <v>3.393919967551014</v>
       </c>
       <c r="H2">
-        <v>0.928387736754388</v>
+        <v>0.9283877367544164</v>
       </c>
       <c r="I2">
-        <v>0.1394679256331663</v>
+        <v>0.1394679256331486</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.635063977924091</v>
+        <v>5.635063977924062</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.053522167560629</v>
+        <v>3.053522167560345</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1683083869667712</v>
+        <v>0.1683083869669844</v>
       </c>
       <c r="E3">
-        <v>0.3161172266362797</v>
+        <v>0.3161172266363224</v>
       </c>
       <c r="F3">
-        <v>3.256555447754636</v>
+        <v>3.256555447754693</v>
       </c>
       <c r="G3">
-        <v>2.855741896290795</v>
+        <v>2.855741896290823</v>
       </c>
       <c r="H3">
         <v>0.8226519302776367</v>
       </c>
       <c r="I3">
-        <v>0.1235007199586136</v>
+        <v>0.1235007199586065</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.850850772738397</v>
+        <v>4.850850772738426</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.766426235449785</v>
+        <v>2.766426235449615</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -503,13 +503,13 @@
         <v>2.905170337658745</v>
       </c>
       <c r="G4">
-        <v>2.545345655717085</v>
+        <v>2.545345655717071</v>
       </c>
       <c r="H4">
         <v>0.7615353854482052</v>
       </c>
       <c r="I4">
-        <v>0.1137081277641485</v>
+        <v>0.1137081277641663</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -532,22 +532,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1421768572109414</v>
+        <v>0.1421768572110409</v>
       </c>
       <c r="E5">
-        <v>0.2779392227103514</v>
+        <v>0.2779392227103017</v>
       </c>
       <c r="F5">
-        <v>2.76677577311591</v>
+        <v>2.766775773115938</v>
       </c>
       <c r="G5">
-        <v>2.423020447477867</v>
+        <v>2.423020447477896</v>
       </c>
       <c r="H5">
         <v>0.7374629216794304</v>
       </c>
       <c r="I5">
-        <v>0.1097201007255642</v>
+        <v>0.1097201007255464</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.630672108979184</v>
+        <v>2.630672108979127</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1409567748941214</v>
+        <v>0.1409567748940219</v>
       </c>
       <c r="E6">
-        <v>0.2761075181088657</v>
+        <v>0.276107518108816</v>
       </c>
       <c r="F6">
         <v>2.744059223188657</v>
       </c>
       <c r="G6">
-        <v>2.402937118945133</v>
+        <v>2.402937118945104</v>
       </c>
       <c r="H6">
-        <v>0.733512721285841</v>
+        <v>0.7335127212858836</v>
       </c>
       <c r="I6">
-        <v>0.1090580363518789</v>
+        <v>0.1090580363518967</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.156809910306407</v>
+        <v>4.156809910306436</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.764853770386878</v>
+        <v>2.764853770387106</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1494924379407081</v>
+        <v>0.149492437940836</v>
       </c>
       <c r="E7">
-        <v>0.2888279208620048</v>
+        <v>0.2888279208620119</v>
       </c>
       <c r="F7">
-        <v>2.903285670810902</v>
+        <v>2.903285670810931</v>
       </c>
       <c r="G7">
         <v>2.543680125256685</v>
@@ -623,13 +623,13 @@
         <v>0.7612075141455108</v>
       </c>
       <c r="I7">
-        <v>0.1136543339712119</v>
+        <v>0.1136543339712048</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.376237758970916</v>
+        <v>4.376237758970888</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.362192325602223</v>
+        <v>3.362192325602166</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1891352361906513</v>
+        <v>0.1891352361905803</v>
       </c>
       <c r="E8">
-        <v>0.3451828042356695</v>
+        <v>0.345182804235705</v>
       </c>
       <c r="F8">
-        <v>3.650673297339949</v>
+        <v>3.650673297339921</v>
       </c>
       <c r="G8">
-        <v>3.203615058152764</v>
+        <v>3.203615058152749</v>
       </c>
       <c r="H8">
-        <v>0.8910597230595982</v>
+        <v>0.891059723059584</v>
       </c>
       <c r="I8">
-        <v>0.1339598751161439</v>
+        <v>0.1339598751161262</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.362371065053225</v>
+        <v>5.362371065053196</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.564721026877578</v>
+        <v>4.564721026877805</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2779996186137481</v>
+        <v>0.2779996186135634</v>
       </c>
       <c r="E9">
-        <v>0.4573382274893589</v>
+        <v>0.4573382274893447</v>
       </c>
       <c r="F9">
-        <v>5.356677709752859</v>
+        <v>5.356677709752887</v>
       </c>
       <c r="G9">
-        <v>4.707254511990612</v>
+        <v>4.707254511990698</v>
       </c>
       <c r="H9">
-        <v>1.182649743236681</v>
+        <v>1.182649743236695</v>
       </c>
       <c r="I9">
-        <v>0.1738862863530493</v>
+        <v>0.1738862863530315</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -722,28 +722,28 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3557375737924531</v>
+        <v>0.3557375737926236</v>
       </c>
       <c r="E10">
-        <v>0.5419837064279989</v>
+        <v>0.5419837064280344</v>
       </c>
       <c r="F10">
-        <v>6.865993228935167</v>
+        <v>6.865993228935082</v>
       </c>
       <c r="G10">
-        <v>6.035902832307215</v>
+        <v>6.035902832307158</v>
       </c>
       <c r="H10">
         <v>1.431356534319306</v>
       </c>
       <c r="I10">
-        <v>0.2033118943036065</v>
+        <v>0.2033118943036136</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.014830103968308</v>
+        <v>9.014830103968279</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.913649290492515</v>
+        <v>5.913649290492174</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3958374362225072</v>
+        <v>0.3958374362223083</v>
       </c>
       <c r="E11">
-        <v>0.5814405669420495</v>
+        <v>0.5814405669420282</v>
       </c>
       <c r="F11">
-        <v>7.646372150106743</v>
+        <v>7.646372150106771</v>
       </c>
       <c r="G11">
-        <v>6.722614570571665</v>
+        <v>6.722614570571693</v>
       </c>
       <c r="H11">
-        <v>1.555749946421059</v>
+        <v>1.555749946421074</v>
       </c>
       <c r="I11">
-        <v>0.2167231474575999</v>
+        <v>0.2167231474576141</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.0791250867249</v>
+        <v>6.079125086725071</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4119742806430082</v>
+        <v>0.4119742806435767</v>
       </c>
       <c r="E12">
-        <v>0.5965820783108313</v>
+        <v>0.5965820783108171</v>
       </c>
       <c r="F12">
         <v>7.960347980092394</v>
@@ -810,7 +810,7 @@
         <v>6.998886610461255</v>
       </c>
       <c r="H12">
-        <v>1.604921559828981</v>
+        <v>1.604921559829009</v>
       </c>
       <c r="I12">
         <v>0.2218054870794681</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.09773214734585</v>
+        <v>10.09773214734582</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.04336550001608</v>
+        <v>6.043365500015852</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.408450863192499</v>
+        <v>0.4084508631924564</v>
       </c>
       <c r="E13">
-        <v>0.5933108209684264</v>
+        <v>0.5933108209684406</v>
       </c>
       <c r="F13">
-        <v>7.891802597044858</v>
+        <v>7.891802597044887</v>
       </c>
       <c r="G13">
-        <v>6.938572861146554</v>
+        <v>6.938572861146582</v>
       </c>
       <c r="H13">
-        <v>1.594230765750709</v>
+        <v>1.59423076575068</v>
       </c>
       <c r="I13">
-        <v>0.2207107450021795</v>
+        <v>0.2207107450021653</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.927209594873148</v>
+        <v>5.927209594872693</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>0.3971439367633991</v>
       </c>
       <c r="E14">
-        <v>0.5826817805178166</v>
+        <v>0.5826817805178379</v>
       </c>
       <c r="F14">
         <v>7.671796568131953</v>
       </c>
       <c r="G14">
-        <v>6.744986101172628</v>
+        <v>6.744986101172685</v>
       </c>
       <c r="H14">
-        <v>1.559750766616389</v>
+        <v>1.559750766616375</v>
       </c>
       <c r="I14">
         <v>0.2171411983446099</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.818689260437566</v>
+        <v>9.81868926043748</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.856402101424237</v>
+        <v>5.856402101424521</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0.5761996572840502</v>
       </c>
       <c r="F15">
-        <v>7.539626183030947</v>
+        <v>7.539626183030919</v>
       </c>
       <c r="G15">
-        <v>6.628685770604591</v>
+        <v>6.628685770604505</v>
       </c>
       <c r="H15">
         <v>1.53891588792699</v>
       </c>
       <c r="I15">
-        <v>0.2149552431916213</v>
+        <v>0.2149552431916177</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.455303875878315</v>
+        <v>5.455303875878258</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3532327650137006</v>
+        <v>0.3532327650134874</v>
       </c>
       <c r="E16">
-        <v>0.5394289925075739</v>
+        <v>0.5394289925075952</v>
       </c>
       <c r="F16">
         <v>6.817259859863441</v>
       </c>
       <c r="G16">
-        <v>5.993015249068861</v>
+        <v>5.99301524906889</v>
       </c>
       <c r="H16">
-        <v>1.423488550618288</v>
+        <v>1.423488550618259</v>
       </c>
       <c r="I16">
-        <v>0.2024359631760966</v>
+        <v>0.2024359631760895</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.964997839517423</v>
+        <v>8.96499783951748</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.212877881171494</v>
+        <v>5.212877881171153</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3318324689498127</v>
+        <v>0.3318324689496137</v>
       </c>
       <c r="E17">
-        <v>0.5171513945268345</v>
+        <v>0.5171513945268202</v>
       </c>
       <c r="F17">
-        <v>6.401067432911731</v>
+        <v>6.401067432911674</v>
       </c>
       <c r="G17">
-        <v>5.626721539569246</v>
+        <v>5.626721539569218</v>
       </c>
       <c r="H17">
-        <v>1.355834935293558</v>
+        <v>1.355834935293544</v>
       </c>
       <c r="I17">
-        <v>0.1947624343190668</v>
+        <v>0.1947624343190313</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.533455500470865</v>
+        <v>8.533455500470808</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.074591553108121</v>
+        <v>5.074591553107723</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3199481621704336</v>
+        <v>0.3199481621708173</v>
       </c>
       <c r="E18">
-        <v>0.5044224164781141</v>
+        <v>0.5044224164780999</v>
       </c>
       <c r="F18">
-        <v>6.170124784186896</v>
+        <v>6.170124784186868</v>
       </c>
       <c r="G18">
-        <v>5.42344382226733</v>
+        <v>5.423443822267274</v>
       </c>
       <c r="H18">
         <v>1.317948219309741</v>
       </c>
       <c r="I18">
-        <v>0.1903512132710787</v>
+        <v>0.1903512132710645</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.289240269130318</v>
+        <v>8.289240269130346</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.027952313886999</v>
+        <v>5.027952313886772</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3159908103449283</v>
+        <v>0.315990810345113</v>
       </c>
       <c r="E19">
-        <v>0.5001256399680827</v>
+        <v>0.5001256399681324</v>
       </c>
       <c r="F19">
-        <v>6.093261142279431</v>
+        <v>6.093261142279374</v>
       </c>
       <c r="G19">
-        <v>5.355783368438324</v>
+        <v>5.355783368438267</v>
       </c>
       <c r="H19">
         <v>1.305285276506936</v>
       </c>
       <c r="I19">
-        <v>0.188858053686598</v>
+        <v>0.1888580536865945</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.238561650837596</v>
+        <v>5.238561650837255</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3340650318021687</v>
+        <v>0.334065031801785</v>
       </c>
       <c r="E20">
-        <v>0.5195137708379605</v>
+        <v>0.5195137708378894</v>
       </c>
       <c r="F20">
-        <v>6.444468706159881</v>
+        <v>6.444468706159995</v>
       </c>
       <c r="G20">
-        <v>5.664921666228054</v>
+        <v>5.664921666228196</v>
       </c>
       <c r="H20">
         <v>1.36292783038364</v>
       </c>
       <c r="I20">
-        <v>0.1955790458004785</v>
+        <v>0.1955790458004572</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.578965754137016</v>
+        <v>8.578965754137101</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.961254800385291</v>
+        <v>5.961254800385746</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.400436423139837</v>
+        <v>0.4004364231394533</v>
       </c>
       <c r="E21">
-        <v>0.5857976921438635</v>
+        <v>0.5857976921438919</v>
       </c>
       <c r="F21">
         <v>7.735865734110178</v>
@@ -1152,10 +1152,10 @@
         <v>6.80136183803819</v>
       </c>
       <c r="H21">
-        <v>1.569817920290319</v>
+        <v>1.569817920290348</v>
       </c>
       <c r="I21">
-        <v>0.218189557455279</v>
+        <v>0.2181895574552577</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.448342328081139</v>
+        <v>6.448342328081083</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4495986195660606</v>
+        <v>0.4495986195662454</v>
       </c>
       <c r="E22">
         <v>0.6303417158558915</v>
@@ -1190,10 +1190,10 @@
         <v>7.642432268612708</v>
       </c>
       <c r="H22">
-        <v>1.717421165207412</v>
+        <v>1.717421165207398</v>
       </c>
       <c r="I22">
-        <v>0.2329888976015901</v>
+        <v>0.2329888976015724</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.186748988285672</v>
+        <v>6.186748988285501</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4227029536681499</v>
+        <v>0.4227029536681783</v>
       </c>
       <c r="E23">
-        <v>0.6064251653085577</v>
+        <v>0.6064251653085648</v>
       </c>
       <c r="F23">
-        <v>8.169019944188676</v>
+        <v>8.169019944188648</v>
       </c>
       <c r="G23">
-        <v>7.182498716473077</v>
+        <v>7.182498716473106</v>
       </c>
       <c r="H23">
-        <v>1.63731400254666</v>
+        <v>1.637314002546717</v>
       </c>
       <c r="I23">
-        <v>0.2250881786287771</v>
+        <v>0.2250881786287593</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.29677333507357</v>
+        <v>10.29677333507362</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.226946674128442</v>
+        <v>5.226946674129067</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3330544034832883</v>
+        <v>0.333054403483132</v>
       </c>
       <c r="E24">
-        <v>0.5184454996161421</v>
+        <v>0.5184454996161705</v>
       </c>
       <c r="F24">
-        <v>6.424821379812499</v>
+        <v>6.424821379812443</v>
       </c>
       <c r="G24">
-        <v>5.64762892300368</v>
+        <v>5.647628923003595</v>
       </c>
       <c r="H24">
         <v>1.359718023462975</v>
       </c>
       <c r="I24">
-        <v>0.1952098545381737</v>
+        <v>0.1952098545381489</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.558378637554142</v>
+        <v>8.558378637554171</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.234655430060627</v>
+        <v>4.234655430060684</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2522882705920892</v>
+        <v>0.2522882705921745</v>
       </c>
       <c r="E25">
-        <v>0.4267175553890823</v>
+        <v>0.4267175553891178</v>
       </c>
       <c r="F25">
         <v>4.860047223236165</v>
       </c>
       <c r="G25">
-        <v>4.269810355781004</v>
+        <v>4.269810355780947</v>
       </c>
       <c r="H25">
-        <v>1.098741280484091</v>
+        <v>1.098741280484106</v>
       </c>
       <c r="I25">
-        <v>0.1630708617794383</v>
+        <v>0.1630708617794419</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.832980672653292</v>
+        <v>6.832980672653207</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.525680057419379</v>
+        <v>3.525680057419663</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2004738522381047</v>
+        <v>0.2004738522379768</v>
       </c>
       <c r="E2">
-        <v>0.3605300737803034</v>
+        <v>0.360530073780275</v>
       </c>
       <c r="F2">
         <v>3.866391350524282</v>
@@ -430,16 +430,16 @@
         <v>3.393919967551014</v>
       </c>
       <c r="H2">
-        <v>0.9283877367544164</v>
+        <v>0.928387736754388</v>
       </c>
       <c r="I2">
-        <v>0.1394679256331486</v>
+        <v>0.1394679256331663</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.635063977924062</v>
+        <v>5.635063977924091</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.053522167560345</v>
+        <v>3.053522167560629</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1683083869669844</v>
+        <v>0.1683083869667712</v>
       </c>
       <c r="E3">
-        <v>0.3161172266363224</v>
+        <v>0.3161172266362797</v>
       </c>
       <c r="F3">
-        <v>3.256555447754693</v>
+        <v>3.256555447754636</v>
       </c>
       <c r="G3">
-        <v>2.855741896290823</v>
+        <v>2.855741896290795</v>
       </c>
       <c r="H3">
         <v>0.8226519302776367</v>
       </c>
       <c r="I3">
-        <v>0.1235007199586065</v>
+        <v>0.1235007199586136</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.850850772738426</v>
+        <v>4.850850772738397</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.766426235449615</v>
+        <v>2.766426235449785</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -503,13 +503,13 @@
         <v>2.905170337658745</v>
       </c>
       <c r="G4">
-        <v>2.545345655717071</v>
+        <v>2.545345655717085</v>
       </c>
       <c r="H4">
         <v>0.7615353854482052</v>
       </c>
       <c r="I4">
-        <v>0.1137081277641663</v>
+        <v>0.1137081277641485</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -532,22 +532,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1421768572110409</v>
+        <v>0.1421768572109414</v>
       </c>
       <c r="E5">
-        <v>0.2779392227103017</v>
+        <v>0.2779392227103514</v>
       </c>
       <c r="F5">
-        <v>2.766775773115938</v>
+        <v>2.76677577311591</v>
       </c>
       <c r="G5">
-        <v>2.423020447477896</v>
+        <v>2.423020447477867</v>
       </c>
       <c r="H5">
         <v>0.7374629216794304</v>
       </c>
       <c r="I5">
-        <v>0.1097201007255464</v>
+        <v>0.1097201007255642</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.630672108979127</v>
+        <v>2.630672108979184</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1409567748940219</v>
+        <v>0.1409567748941214</v>
       </c>
       <c r="E6">
-        <v>0.276107518108816</v>
+        <v>0.2761075181088657</v>
       </c>
       <c r="F6">
         <v>2.744059223188657</v>
       </c>
       <c r="G6">
-        <v>2.402937118945104</v>
+        <v>2.402937118945133</v>
       </c>
       <c r="H6">
-        <v>0.7335127212858836</v>
+        <v>0.733512721285841</v>
       </c>
       <c r="I6">
-        <v>0.1090580363518967</v>
+        <v>0.1090580363518789</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.156809910306436</v>
+        <v>4.156809910306407</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.764853770387106</v>
+        <v>2.764853770386878</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.149492437940836</v>
+        <v>0.1494924379407081</v>
       </c>
       <c r="E7">
-        <v>0.2888279208620119</v>
+        <v>0.2888279208620048</v>
       </c>
       <c r="F7">
-        <v>2.903285670810931</v>
+        <v>2.903285670810902</v>
       </c>
       <c r="G7">
         <v>2.543680125256685</v>
@@ -623,13 +623,13 @@
         <v>0.7612075141455108</v>
       </c>
       <c r="I7">
-        <v>0.1136543339712048</v>
+        <v>0.1136543339712119</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.376237758970888</v>
+        <v>4.376237758970916</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.362192325602166</v>
+        <v>3.362192325602223</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1891352361905803</v>
+        <v>0.1891352361906513</v>
       </c>
       <c r="E8">
-        <v>0.345182804235705</v>
+        <v>0.3451828042356695</v>
       </c>
       <c r="F8">
-        <v>3.650673297339921</v>
+        <v>3.650673297339949</v>
       </c>
       <c r="G8">
-        <v>3.203615058152749</v>
+        <v>3.203615058152764</v>
       </c>
       <c r="H8">
-        <v>0.891059723059584</v>
+        <v>0.8910597230595982</v>
       </c>
       <c r="I8">
-        <v>0.1339598751161262</v>
+        <v>0.1339598751161439</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.362371065053196</v>
+        <v>5.362371065053225</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.564721026877805</v>
+        <v>4.564721026877578</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2779996186135634</v>
+        <v>0.2779996186137481</v>
       </c>
       <c r="E9">
-        <v>0.4573382274893447</v>
+        <v>0.4573382274893589</v>
       </c>
       <c r="F9">
-        <v>5.356677709752887</v>
+        <v>5.356677709752859</v>
       </c>
       <c r="G9">
-        <v>4.707254511990698</v>
+        <v>4.707254511990612</v>
       </c>
       <c r="H9">
-        <v>1.182649743236695</v>
+        <v>1.182649743236681</v>
       </c>
       <c r="I9">
-        <v>0.1738862863530315</v>
+        <v>0.1738862863530493</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -722,28 +722,28 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3557375737926236</v>
+        <v>0.3557375737924531</v>
       </c>
       <c r="E10">
-        <v>0.5419837064280344</v>
+        <v>0.5419837064279989</v>
       </c>
       <c r="F10">
-        <v>6.865993228935082</v>
+        <v>6.865993228935167</v>
       </c>
       <c r="G10">
-        <v>6.035902832307158</v>
+        <v>6.035902832307215</v>
       </c>
       <c r="H10">
         <v>1.431356534319306</v>
       </c>
       <c r="I10">
-        <v>0.2033118943036136</v>
+        <v>0.2033118943036065</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.014830103968279</v>
+        <v>9.014830103968308</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.913649290492174</v>
+        <v>5.913649290492515</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3958374362223083</v>
+        <v>0.3958374362225072</v>
       </c>
       <c r="E11">
-        <v>0.5814405669420282</v>
+        <v>0.5814405669420495</v>
       </c>
       <c r="F11">
-        <v>7.646372150106771</v>
+        <v>7.646372150106743</v>
       </c>
       <c r="G11">
-        <v>6.722614570571693</v>
+        <v>6.722614570571665</v>
       </c>
       <c r="H11">
-        <v>1.555749946421074</v>
+        <v>1.555749946421059</v>
       </c>
       <c r="I11">
-        <v>0.2167231474576141</v>
+        <v>0.2167231474575999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.079125086725071</v>
+        <v>6.0791250867249</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4119742806435767</v>
+        <v>0.4119742806430082</v>
       </c>
       <c r="E12">
-        <v>0.5965820783108171</v>
+        <v>0.5965820783108313</v>
       </c>
       <c r="F12">
         <v>7.960347980092394</v>
@@ -810,7 +810,7 @@
         <v>6.998886610461255</v>
       </c>
       <c r="H12">
-        <v>1.604921559829009</v>
+        <v>1.604921559828981</v>
       </c>
       <c r="I12">
         <v>0.2218054870794681</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.09773214734582</v>
+        <v>10.09773214734585</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.043365500015852</v>
+        <v>6.04336550001608</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4084508631924564</v>
+        <v>0.408450863192499</v>
       </c>
       <c r="E13">
-        <v>0.5933108209684406</v>
+        <v>0.5933108209684264</v>
       </c>
       <c r="F13">
-        <v>7.891802597044887</v>
+        <v>7.891802597044858</v>
       </c>
       <c r="G13">
-        <v>6.938572861146582</v>
+        <v>6.938572861146554</v>
       </c>
       <c r="H13">
-        <v>1.59423076575068</v>
+        <v>1.594230765750709</v>
       </c>
       <c r="I13">
-        <v>0.2207107450021653</v>
+        <v>0.2207107450021795</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.927209594872693</v>
+        <v>5.927209594873148</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>0.3971439367633991</v>
       </c>
       <c r="E14">
-        <v>0.5826817805178379</v>
+        <v>0.5826817805178166</v>
       </c>
       <c r="F14">
         <v>7.671796568131953</v>
       </c>
       <c r="G14">
-        <v>6.744986101172685</v>
+        <v>6.744986101172628</v>
       </c>
       <c r="H14">
-        <v>1.559750766616375</v>
+        <v>1.559750766616389</v>
       </c>
       <c r="I14">
         <v>0.2171411983446099</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.81868926043748</v>
+        <v>9.818689260437566</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.856402101424521</v>
+        <v>5.856402101424237</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0.5761996572840502</v>
       </c>
       <c r="F15">
-        <v>7.539626183030919</v>
+        <v>7.539626183030947</v>
       </c>
       <c r="G15">
-        <v>6.628685770604505</v>
+        <v>6.628685770604591</v>
       </c>
       <c r="H15">
         <v>1.53891588792699</v>
       </c>
       <c r="I15">
-        <v>0.2149552431916177</v>
+        <v>0.2149552431916213</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.455303875878258</v>
+        <v>5.455303875878315</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3532327650134874</v>
+        <v>0.3532327650137006</v>
       </c>
       <c r="E16">
-        <v>0.5394289925075952</v>
+        <v>0.5394289925075739</v>
       </c>
       <c r="F16">
         <v>6.817259859863441</v>
       </c>
       <c r="G16">
-        <v>5.99301524906889</v>
+        <v>5.993015249068861</v>
       </c>
       <c r="H16">
-        <v>1.423488550618259</v>
+        <v>1.423488550618288</v>
       </c>
       <c r="I16">
-        <v>0.2024359631760895</v>
+        <v>0.2024359631760966</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.96499783951748</v>
+        <v>8.964997839517423</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.212877881171153</v>
+        <v>5.212877881171494</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3318324689496137</v>
+        <v>0.3318324689498127</v>
       </c>
       <c r="E17">
-        <v>0.5171513945268202</v>
+        <v>0.5171513945268345</v>
       </c>
       <c r="F17">
-        <v>6.401067432911674</v>
+        <v>6.401067432911731</v>
       </c>
       <c r="G17">
-        <v>5.626721539569218</v>
+        <v>5.626721539569246</v>
       </c>
       <c r="H17">
-        <v>1.355834935293544</v>
+        <v>1.355834935293558</v>
       </c>
       <c r="I17">
-        <v>0.1947624343190313</v>
+        <v>0.1947624343190668</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.533455500470808</v>
+        <v>8.533455500470865</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.074591553107723</v>
+        <v>5.074591553108121</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3199481621708173</v>
+        <v>0.3199481621704336</v>
       </c>
       <c r="E18">
-        <v>0.5044224164780999</v>
+        <v>0.5044224164781141</v>
       </c>
       <c r="F18">
-        <v>6.170124784186868</v>
+        <v>6.170124784186896</v>
       </c>
       <c r="G18">
-        <v>5.423443822267274</v>
+        <v>5.42344382226733</v>
       </c>
       <c r="H18">
         <v>1.317948219309741</v>
       </c>
       <c r="I18">
-        <v>0.1903512132710645</v>
+        <v>0.1903512132710787</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.289240269130346</v>
+        <v>8.289240269130318</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.027952313886772</v>
+        <v>5.027952313886999</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.315990810345113</v>
+        <v>0.3159908103449283</v>
       </c>
       <c r="E19">
-        <v>0.5001256399681324</v>
+        <v>0.5001256399680827</v>
       </c>
       <c r="F19">
-        <v>6.093261142279374</v>
+        <v>6.093261142279431</v>
       </c>
       <c r="G19">
-        <v>5.355783368438267</v>
+        <v>5.355783368438324</v>
       </c>
       <c r="H19">
         <v>1.305285276506936</v>
       </c>
       <c r="I19">
-        <v>0.1888580536865945</v>
+        <v>0.188858053686598</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.238561650837255</v>
+        <v>5.238561650837596</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.334065031801785</v>
+        <v>0.3340650318021687</v>
       </c>
       <c r="E20">
-        <v>0.5195137708378894</v>
+        <v>0.5195137708379605</v>
       </c>
       <c r="F20">
-        <v>6.444468706159995</v>
+        <v>6.444468706159881</v>
       </c>
       <c r="G20">
-        <v>5.664921666228196</v>
+        <v>5.664921666228054</v>
       </c>
       <c r="H20">
         <v>1.36292783038364</v>
       </c>
       <c r="I20">
-        <v>0.1955790458004572</v>
+        <v>0.1955790458004785</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.578965754137101</v>
+        <v>8.578965754137016</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.961254800385746</v>
+        <v>5.961254800385291</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4004364231394533</v>
+        <v>0.400436423139837</v>
       </c>
       <c r="E21">
-        <v>0.5857976921438919</v>
+        <v>0.5857976921438635</v>
       </c>
       <c r="F21">
         <v>7.735865734110178</v>
@@ -1152,10 +1152,10 @@
         <v>6.80136183803819</v>
       </c>
       <c r="H21">
-        <v>1.569817920290348</v>
+        <v>1.569817920290319</v>
       </c>
       <c r="I21">
-        <v>0.2181895574552577</v>
+        <v>0.218189557455279</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.448342328081083</v>
+        <v>6.448342328081139</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4495986195662454</v>
+        <v>0.4495986195660606</v>
       </c>
       <c r="E22">
         <v>0.6303417158558915</v>
@@ -1190,10 +1190,10 @@
         <v>7.642432268612708</v>
       </c>
       <c r="H22">
-        <v>1.717421165207398</v>
+        <v>1.717421165207412</v>
       </c>
       <c r="I22">
-        <v>0.2329888976015724</v>
+        <v>0.2329888976015901</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.186748988285501</v>
+        <v>6.186748988285672</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4227029536681783</v>
+        <v>0.4227029536681499</v>
       </c>
       <c r="E23">
-        <v>0.6064251653085648</v>
+        <v>0.6064251653085577</v>
       </c>
       <c r="F23">
-        <v>8.169019944188648</v>
+        <v>8.169019944188676</v>
       </c>
       <c r="G23">
-        <v>7.182498716473106</v>
+        <v>7.182498716473077</v>
       </c>
       <c r="H23">
-        <v>1.637314002546717</v>
+        <v>1.63731400254666</v>
       </c>
       <c r="I23">
-        <v>0.2250881786287593</v>
+        <v>0.2250881786287771</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.29677333507362</v>
+        <v>10.29677333507357</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.226946674129067</v>
+        <v>5.226946674128442</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.333054403483132</v>
+        <v>0.3330544034832883</v>
       </c>
       <c r="E24">
-        <v>0.5184454996161705</v>
+        <v>0.5184454996161421</v>
       </c>
       <c r="F24">
-        <v>6.424821379812443</v>
+        <v>6.424821379812499</v>
       </c>
       <c r="G24">
-        <v>5.647628923003595</v>
+        <v>5.64762892300368</v>
       </c>
       <c r="H24">
         <v>1.359718023462975</v>
       </c>
       <c r="I24">
-        <v>0.1952098545381489</v>
+        <v>0.1952098545381737</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.558378637554171</v>
+        <v>8.558378637554142</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.234655430060684</v>
+        <v>4.234655430060627</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2522882705921745</v>
+        <v>0.2522882705920892</v>
       </c>
       <c r="E25">
-        <v>0.4267175553891178</v>
+        <v>0.4267175553890823</v>
       </c>
       <c r="F25">
         <v>4.860047223236165</v>
       </c>
       <c r="G25">
-        <v>4.269810355780947</v>
+        <v>4.269810355781004</v>
       </c>
       <c r="H25">
-        <v>1.098741280484106</v>
+        <v>1.098741280484091</v>
       </c>
       <c r="I25">
-        <v>0.1630708617794419</v>
+        <v>0.1630708617794383</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.832980672653207</v>
+        <v>6.832980672653292</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.525680057419663</v>
+        <v>3.525439297436719</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2004738522379768</v>
+        <v>0.1997266940377074</v>
       </c>
       <c r="E2">
-        <v>0.360530073780275</v>
+        <v>0.3599007158005278</v>
       </c>
       <c r="F2">
-        <v>3.866391350524282</v>
+        <v>3.8584930124089</v>
       </c>
       <c r="G2">
-        <v>3.393919967551014</v>
+        <v>1.148945755975447</v>
       </c>
       <c r="H2">
-        <v>0.928387736754388</v>
+        <v>2.239063324596472</v>
       </c>
       <c r="I2">
-        <v>0.1394679256331663</v>
+        <v>0.9296545152494389</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1393352477079262</v>
       </c>
       <c r="K2">
-        <v>5.635063977924091</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>5.630977066801108</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.053522167560629</v>
+        <v>3.053352470752998</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1683083869667712</v>
+        <v>0.1676901981937959</v>
       </c>
       <c r="E3">
-        <v>0.3161172266362797</v>
+        <v>0.3155784958918062</v>
       </c>
       <c r="F3">
-        <v>3.256555447754636</v>
+        <v>3.250095150930576</v>
       </c>
       <c r="G3">
-        <v>2.855741896290795</v>
+        <v>0.9641434585269195</v>
       </c>
       <c r="H3">
-        <v>0.8226519302776367</v>
+        <v>1.887531972490564</v>
       </c>
       <c r="I3">
-        <v>0.1235007199586136</v>
+        <v>0.823770273406538</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1233849630967327</v>
       </c>
       <c r="K3">
-        <v>4.850850772738397</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>4.847484978740027</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.766426235449785</v>
+        <v>2.76629274175167</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1495932495859478</v>
+        <v>0.1490482163812743</v>
       </c>
       <c r="E4">
-        <v>0.2889768564853128</v>
+        <v>0.2884921931513702</v>
       </c>
       <c r="F4">
-        <v>2.905170337658745</v>
+        <v>2.899508551232543</v>
       </c>
       <c r="G4">
-        <v>2.545345655717085</v>
+        <v>0.8573212841368871</v>
       </c>
       <c r="H4">
-        <v>0.7615353854482052</v>
+        <v>1.684997838193894</v>
       </c>
       <c r="I4">
-        <v>0.1137081277641485</v>
+        <v>0.7625588238712595</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1136028502556599</v>
       </c>
       <c r="K4">
-        <v>4.378813612344686</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>4.37585319126066</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.649979243522978</v>
+        <v>2.649859036293435</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1421768572109414</v>
+        <v>0.1416604401744763</v>
       </c>
       <c r="E5">
-        <v>0.2779392227103514</v>
+        <v>0.2774763050395492</v>
       </c>
       <c r="F5">
-        <v>2.76677577311591</v>
+        <v>2.761422644126753</v>
       </c>
       <c r="G5">
-        <v>2.423020447477867</v>
+        <v>0.8151668713796312</v>
       </c>
       <c r="H5">
-        <v>0.7374629216794304</v>
+        <v>1.605232377150955</v>
       </c>
       <c r="I5">
-        <v>0.1097201007255642</v>
+        <v>0.7384469166239498</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1096191214558289</v>
       </c>
       <c r="K5">
-        <v>4.188337566154132</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>4.185535019944723</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.630672108979184</v>
+        <v>2.630554029370956</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1409567748941214</v>
+        <v>0.1404450454109565</v>
       </c>
       <c r="E6">
-        <v>0.2761075181088657</v>
+        <v>0.2756481966860349</v>
       </c>
       <c r="F6">
-        <v>2.744059223188657</v>
+        <v>2.738756447213007</v>
       </c>
       <c r="G6">
-        <v>2.402937118945133</v>
+        <v>0.8082426304403469</v>
       </c>
       <c r="H6">
-        <v>0.733512721285841</v>
+        <v>1.592139601970402</v>
       </c>
       <c r="I6">
-        <v>0.1090580363518789</v>
+        <v>0.7344901245233473</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1089577726105553</v>
       </c>
       <c r="K6">
-        <v>4.156809910306407</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>4.154033188976285</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.764853770386878</v>
+        <v>2.76472046135018</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1494924379407081</v>
+        <v>0.1489477951311216</v>
       </c>
       <c r="E7">
-        <v>0.2888279208620048</v>
+        <v>0.2883435518337123</v>
       </c>
       <c r="F7">
-        <v>2.903285670810902</v>
+        <v>2.897628109656353</v>
       </c>
       <c r="G7">
-        <v>2.543680125256685</v>
+        <v>0.856747554454941</v>
       </c>
       <c r="H7">
-        <v>0.7612075141455108</v>
+        <v>1.683911572988123</v>
       </c>
       <c r="I7">
-        <v>0.1136543339712119</v>
+        <v>0.7622304235339357</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1135491143116205</v>
       </c>
       <c r="K7">
-        <v>4.376237758970916</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>4.373279494271429</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.362192325602223</v>
+        <v>3.361977885254703</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1891352361906513</v>
+        <v>0.1884340175433152</v>
       </c>
       <c r="E8">
-        <v>0.3451828042356695</v>
+        <v>0.3445850966390367</v>
       </c>
       <c r="F8">
-        <v>3.650673297339949</v>
+        <v>3.643291398965857</v>
       </c>
       <c r="G8">
-        <v>3.203615058152764</v>
+        <v>1.083651195912537</v>
       </c>
       <c r="H8">
-        <v>0.8910597230595982</v>
+        <v>2.114711423872549</v>
       </c>
       <c r="I8">
-        <v>0.1339598751161439</v>
+        <v>0.8922762263642028</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1338330165674684</v>
       </c>
       <c r="K8">
-        <v>5.362371065053225</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>5.358541984623628</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.564721026877578</v>
+        <v>4.564263075145448</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2779996186137481</v>
+        <v>0.2769233924324084</v>
       </c>
       <c r="E9">
-        <v>0.4573382274893589</v>
+        <v>0.4564989010101286</v>
       </c>
       <c r="F9">
-        <v>5.356677709752859</v>
+        <v>5.344959594457663</v>
       </c>
       <c r="G9">
-        <v>4.707254511990612</v>
+        <v>1.598305409922688</v>
       </c>
       <c r="H9">
-        <v>1.182649743236681</v>
+        <v>3.098285600206708</v>
       </c>
       <c r="I9">
-        <v>0.1738862863530493</v>
+        <v>1.184204176299943</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1737173668992149</v>
       </c>
       <c r="K9">
-        <v>7.400018024394342</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>7.394052178962767</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.483134950081819</v>
+        <v>5.482391125637605</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3557375737924531</v>
+        <v>0.3543012306818412</v>
       </c>
       <c r="E10">
-        <v>0.5419837064279989</v>
+        <v>0.5409404224510155</v>
       </c>
       <c r="F10">
-        <v>6.865993228935167</v>
+        <v>6.849886156520654</v>
       </c>
       <c r="G10">
-        <v>6.035902832307215</v>
+        <v>2.05122205754256</v>
       </c>
       <c r="H10">
-        <v>1.431356534319306</v>
+        <v>3.968767383587164</v>
       </c>
       <c r="I10">
-        <v>0.2033118943036065</v>
+        <v>1.433106592146686</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2031115539024206</v>
       </c>
       <c r="K10">
-        <v>9.014830103968308</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>9.006743356873756</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.913649290492515</v>
+        <v>5.912728952999316</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3958374362225072</v>
+        <v>0.3942010980144204</v>
       </c>
       <c r="E11">
-        <v>0.5814405669420495</v>
+        <v>0.5802927577323373</v>
       </c>
       <c r="F11">
-        <v>7.646372150106743</v>
+        <v>7.627746655900154</v>
       </c>
       <c r="G11">
-        <v>6.722614570571665</v>
+        <v>2.284797372071381</v>
       </c>
       <c r="H11">
-        <v>1.555749946421059</v>
+        <v>4.418975218722068</v>
       </c>
       <c r="I11">
-        <v>0.2167231474575999</v>
+        <v>1.55756555358964</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2165080888453481</v>
       </c>
       <c r="K11">
-        <v>9.793886591367055</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>9.784593635390564</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.0791250867249</v>
+        <v>6.078127667666024</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4119742806430082</v>
+        <v>0.4102543067696871</v>
       </c>
       <c r="E12">
-        <v>0.5965820783108313</v>
+        <v>0.5953920939623103</v>
       </c>
       <c r="F12">
-        <v>7.960347980092394</v>
+        <v>7.940653777192324</v>
       </c>
       <c r="G12">
-        <v>6.998886610461255</v>
+        <v>2.378680027087569</v>
       </c>
       <c r="H12">
-        <v>1.604921559828981</v>
+        <v>4.600138162248584</v>
       </c>
       <c r="I12">
-        <v>0.2218054870794681</v>
+        <v>1.606756718767173</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2215847467780208</v>
       </c>
       <c r="K12">
-        <v>10.09773214734585</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>10.08792899704463</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.04336550001608</v>
+        <v>6.042385218862137</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.408450863192499</v>
+        <v>0.4067493148678807</v>
       </c>
       <c r="E13">
-        <v>0.5933108209684264</v>
+        <v>0.5921300557652174</v>
       </c>
       <c r="F13">
-        <v>7.891802597044858</v>
+        <v>7.872344594831645</v>
       </c>
       <c r="G13">
-        <v>6.938572861146554</v>
+        <v>2.358188351357654</v>
       </c>
       <c r="H13">
-        <v>1.594230765750709</v>
+        <v>4.560586352906427</v>
       </c>
       <c r="I13">
-        <v>0.2207107450021795</v>
+        <v>1.596061992403435</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2204912342424024</v>
       </c>
       <c r="K13">
-        <v>10.03184993930046</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>10.02215947512695</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.927209594873148</v>
+        <v>5.926283149487972</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3971439367633991</v>
+        <v>0.3955008976627283</v>
       </c>
       <c r="E14">
-        <v>0.5826817805178166</v>
+        <v>0.5815305607050547</v>
       </c>
       <c r="F14">
-        <v>7.671796568131953</v>
+        <v>7.653085776272434</v>
       </c>
       <c r="G14">
-        <v>6.744986101172628</v>
+        <v>2.292401466199493</v>
       </c>
       <c r="H14">
-        <v>1.559750766616389</v>
+        <v>4.433644424411398</v>
       </c>
       <c r="I14">
-        <v>0.2171411983446099</v>
+        <v>1.561568103310876</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2169256748401587</v>
       </c>
       <c r="K14">
-        <v>9.818689260437566</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>9.809355551205584</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.856402101424237</v>
+        <v>5.855507155534497</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.390352261848733</v>
+        <v>0.3887439241714787</v>
       </c>
       <c r="E15">
-        <v>0.5761996572840502</v>
+        <v>0.5750661609395209</v>
       </c>
       <c r="F15">
-        <v>7.539626183030947</v>
+        <v>7.521356488768305</v>
       </c>
       <c r="G15">
-        <v>6.628685770604591</v>
+        <v>2.252867395826399</v>
       </c>
       <c r="H15">
-        <v>1.53891588792699</v>
+        <v>4.357386799092552</v>
       </c>
       <c r="I15">
-        <v>0.2149552431916213</v>
+        <v>1.540723953106649</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2147421460168317</v>
       </c>
       <c r="K15">
-        <v>9.689363103920272</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>9.680240205764903</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.455303875878315</v>
+        <v>5.454570393120719</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3532327650137006</v>
+        <v>0.3518085672989457</v>
       </c>
       <c r="E16">
-        <v>0.5394289925075739</v>
+        <v>0.5383922371287966</v>
       </c>
       <c r="F16">
-        <v>6.817259859863441</v>
+        <v>6.801303964578921</v>
       </c>
       <c r="G16">
-        <v>5.993015249068861</v>
+        <v>2.036623683563107</v>
       </c>
       <c r="H16">
-        <v>1.423488550618288</v>
+        <v>3.940655788365547</v>
       </c>
       <c r="I16">
-        <v>0.2024359631760966</v>
+        <v>1.425233715777495</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.202236572659622</v>
       </c>
       <c r="K16">
-        <v>8.964997839517423</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>8.956983703906559</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.212877881171494</v>
+        <v>5.212229600298656</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3318324689498127</v>
+        <v>0.330510485451839</v>
       </c>
       <c r="E17">
-        <v>0.5171513945268345</v>
+        <v>0.5161704801398841</v>
       </c>
       <c r="F17">
-        <v>6.401067432911731</v>
+        <v>6.386375441463912</v>
       </c>
       <c r="G17">
-        <v>5.626721539569246</v>
+        <v>1.911887419169034</v>
       </c>
       <c r="H17">
-        <v>1.355834935293558</v>
+        <v>3.700591812284813</v>
       </c>
       <c r="I17">
-        <v>0.1947624343190668</v>
+        <v>1.357534481547589</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1945713176847867</v>
       </c>
       <c r="K17">
-        <v>8.533455500470865</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>8.52604949709152</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.074591553108121</v>
+        <v>5.073988196055041</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3199481621704336</v>
+        <v>0.3186817852778887</v>
       </c>
       <c r="E18">
-        <v>0.5044224164781141</v>
+        <v>0.5034725888452414</v>
       </c>
       <c r="F18">
-        <v>6.170124784186896</v>
+        <v>6.156113918652267</v>
       </c>
       <c r="G18">
-        <v>5.42344382226733</v>
+        <v>1.842620185929235</v>
       </c>
       <c r="H18">
-        <v>1.317948219309741</v>
+        <v>3.567392712308191</v>
       </c>
       <c r="I18">
-        <v>0.1903512132710787</v>
+        <v>1.3196194775973</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1901648194441101</v>
       </c>
       <c r="K18">
-        <v>8.289240269130318</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>8.282162862362128</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.027952313886999</v>
+        <v>5.027363544199147</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3159908103449283</v>
+        <v>0.314742773467259</v>
       </c>
       <c r="E19">
-        <v>0.5001256399680827</v>
+        <v>0.4991861806082554</v>
       </c>
       <c r="F19">
-        <v>6.093261142279431</v>
+        <v>6.079473896945046</v>
       </c>
       <c r="G19">
-        <v>5.355783368438324</v>
+        <v>1.819557545592204</v>
       </c>
       <c r="H19">
-        <v>1.305285276506936</v>
+        <v>3.523062319658749</v>
       </c>
       <c r="I19">
-        <v>0.188858053686598</v>
+        <v>1.306946646026105</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.188673253758882</v>
       </c>
       <c r="K19">
-        <v>8.207180566805278</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>8.200211187934514</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.238561650837596</v>
+        <v>5.237904742043668</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3340650318021687</v>
+        <v>0.3327325118352746</v>
       </c>
       <c r="E20">
-        <v>0.5195137708379605</v>
+        <v>0.5185270238273603</v>
       </c>
       <c r="F20">
-        <v>6.444468706159881</v>
+        <v>6.429647132762227</v>
       </c>
       <c r="G20">
-        <v>5.664921666228054</v>
+        <v>1.924900616394666</v>
       </c>
       <c r="H20">
-        <v>1.36292783038364</v>
+        <v>3.725624907096488</v>
       </c>
       <c r="I20">
-        <v>0.1955790458004785</v>
+        <v>1.364632455196045</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1953870523942456</v>
       </c>
       <c r="K20">
-        <v>8.578965754137016</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>8.571497308865986</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.961254800385291</v>
+        <v>5.960312859616579</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.400436423139837</v>
+        <v>0.3987764428435554</v>
       </c>
       <c r="E21">
-        <v>0.5857976921438635</v>
+        <v>0.5846378745337688</v>
       </c>
       <c r="F21">
-        <v>7.735865734110178</v>
+        <v>7.716939036183845</v>
       </c>
       <c r="G21">
-        <v>6.80136183803819</v>
+        <v>2.311562181428911</v>
       </c>
       <c r="H21">
-        <v>1.569817920290319</v>
+        <v>4.470611073044296</v>
       </c>
       <c r="I21">
-        <v>0.218189557455279</v>
+        <v>1.571639501226812</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2179728662562255</v>
       </c>
       <c r="K21">
-        <v>9.881035132330425</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>9.871598294299702</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.448342328081139</v>
+        <v>6.447150735605817</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4495986195660606</v>
+        <v>0.447675793741837</v>
       </c>
       <c r="E22">
-        <v>0.6303417158558915</v>
+        <v>0.6290527437962012</v>
       </c>
       <c r="F22">
-        <v>8.691719875103871</v>
+        <v>8.66939817930583</v>
       </c>
       <c r="G22">
-        <v>7.642432268612708</v>
+        <v>2.597186692891796</v>
       </c>
       <c r="H22">
-        <v>1.717421165207412</v>
+        <v>5.022199756077413</v>
       </c>
       <c r="I22">
-        <v>0.2329888976015901</v>
+        <v>1.719286449475291</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2327553859994005</v>
       </c>
       <c r="K22">
-        <v>10.78556273882032</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>10.77450854417313</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.186748988285672</v>
+        <v>6.185698305477274</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4227029536681499</v>
+        <v>0.4209262921097263</v>
       </c>
       <c r="E23">
-        <v>0.6064251653085577</v>
+        <v>0.6052070645449206</v>
       </c>
       <c r="F23">
-        <v>8.169019944188676</v>
+        <v>8.148596425292027</v>
       </c>
       <c r="G23">
-        <v>7.182498716473077</v>
+        <v>2.441048554060956</v>
       </c>
       <c r="H23">
-        <v>1.63731400254666</v>
+        <v>4.720550033391959</v>
       </c>
       <c r="I23">
-        <v>0.2250881786287771</v>
+        <v>1.639159970554545</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2248637310717072</v>
       </c>
       <c r="K23">
-        <v>10.29677333507357</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>10.28662249276994</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.226946674128442</v>
+        <v>5.226293678430977</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3330544034832883</v>
+        <v>0.3317266567129593</v>
       </c>
       <c r="E24">
-        <v>0.5184454996161421</v>
+        <v>0.5174613926430141</v>
       </c>
       <c r="F24">
-        <v>6.424821379812499</v>
+        <v>6.410058529553424</v>
       </c>
       <c r="G24">
-        <v>5.64762892300368</v>
+        <v>1.919009834318302</v>
       </c>
       <c r="H24">
-        <v>1.359718023462975</v>
+        <v>3.714292639086636</v>
       </c>
       <c r="I24">
-        <v>0.1952098545381737</v>
+        <v>1.361420358555534</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1950182576232393</v>
       </c>
       <c r="K24">
-        <v>8.558378637554142</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>8.550938486534136</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.234655430060627</v>
+        <v>4.234276779554079</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2522882705920892</v>
+        <v>0.2513242115377352</v>
       </c>
       <c r="E25">
-        <v>0.4267175553890823</v>
+        <v>0.4259468363534538</v>
       </c>
       <c r="F25">
-        <v>4.860047223236165</v>
+        <v>4.849653462138292</v>
       </c>
       <c r="G25">
-        <v>4.269810355781004</v>
+        <v>1.448847328979753</v>
       </c>
       <c r="H25">
-        <v>1.098741280484091</v>
+        <v>2.81192561995914</v>
       </c>
       <c r="I25">
-        <v>0.1630708617794383</v>
+        <v>1.100210847476049</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1629133399439766</v>
       </c>
       <c r="K25">
-        <v>6.832980672653292</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>6.827661657479695</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.525439297436719</v>
+        <v>2.435503772930929</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1997266940377074</v>
+        <v>0.2706977563003079</v>
       </c>
       <c r="E2">
-        <v>0.3599007158005278</v>
+        <v>0.1968351160475876</v>
       </c>
       <c r="F2">
-        <v>3.8584930124089</v>
+        <v>3.784430654148565</v>
       </c>
       <c r="G2">
-        <v>1.148945755975447</v>
+        <v>0.0008034253211808238</v>
       </c>
       <c r="H2">
-        <v>2.239063324596472</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9296545152494389</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1393352477079262</v>
+        <v>0.2113305278705866</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.243211423375044</v>
       </c>
       <c r="L2">
-        <v>5.630977066801108</v>
+        <v>1.44601196958547</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.338902241945696</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.053352470752998</v>
+        <v>2.154726879362897</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1676901981937959</v>
+        <v>0.2303953399179761</v>
       </c>
       <c r="E3">
-        <v>0.3155784958918062</v>
+        <v>0.1695445254910695</v>
       </c>
       <c r="F3">
-        <v>3.250095150930576</v>
+        <v>3.45911958743946</v>
       </c>
       <c r="G3">
-        <v>0.9641434585269195</v>
+        <v>0.0008167382570079654</v>
       </c>
       <c r="H3">
-        <v>1.887531972490564</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.823770273406538</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1233849630967327</v>
+        <v>0.1871879827513538</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.938609031309795</v>
       </c>
       <c r="L3">
-        <v>4.847484978740027</v>
+        <v>1.256532666878684</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.402306922439756</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.76629274175167</v>
+        <v>1.987003765017647</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1490482163812743</v>
+        <v>0.206501666534308</v>
       </c>
       <c r="E4">
-        <v>0.2884921931513702</v>
+        <v>0.1532107867489678</v>
       </c>
       <c r="F4">
-        <v>2.899508551232543</v>
+        <v>3.269726075256699</v>
       </c>
       <c r="G4">
-        <v>0.8573212841368871</v>
+        <v>0.0008250779755272016</v>
       </c>
       <c r="H4">
-        <v>1.684997838193894</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7625588238712595</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1136028502556599</v>
+        <v>0.1726555496939284</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.756456835472761</v>
       </c>
       <c r="L4">
-        <v>4.37585319126066</v>
+        <v>1.143395365628976</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.443356726198097</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.649859036293435</v>
+        <v>1.919686624997723</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1416604401744763</v>
+        <v>0.1969446908322112</v>
       </c>
       <c r="E5">
-        <v>0.2774763050395492</v>
+        <v>0.1466414658291697</v>
       </c>
       <c r="F5">
-        <v>2.761422644126753</v>
+        <v>3.194855684980922</v>
       </c>
       <c r="G5">
-        <v>0.8151668713796312</v>
+        <v>0.0008285224184877253</v>
       </c>
       <c r="H5">
-        <v>1.605232377150955</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7384469166239498</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1096191214558289</v>
+        <v>0.1667915444923054</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.683275069388429</v>
       </c>
       <c r="L5">
-        <v>4.185535019944723</v>
+        <v>1.097982948356218</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.460590527059416</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.630554029370956</v>
+        <v>1.908567041504341</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1404450454109565</v>
+        <v>0.1953677012735682</v>
       </c>
       <c r="E6">
-        <v>0.2756481966860349</v>
+        <v>0.145555353760038</v>
       </c>
       <c r="F6">
-        <v>2.738756447213007</v>
+        <v>3.182555026933187</v>
       </c>
       <c r="G6">
-        <v>0.8082426304403469</v>
+        <v>0.0008290972574955813</v>
       </c>
       <c r="H6">
-        <v>1.592139601970402</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7344901245233473</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1089577726105553</v>
+        <v>0.1658209320877333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.67118166816249</v>
       </c>
       <c r="L6">
-        <v>4.154033188976285</v>
+        <v>1.090480969545752</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.463481990974337</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.76472046135018</v>
+        <v>1.986091905534522</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1489477951311216</v>
+        <v>0.206372091836613</v>
       </c>
       <c r="E7">
-        <v>0.2883435518337123</v>
+        <v>0.1531218631117213</v>
       </c>
       <c r="F7">
-        <v>2.897628109656353</v>
+        <v>3.268707361253064</v>
       </c>
       <c r="G7">
-        <v>0.856747554454941</v>
+        <v>0.0008251242370049311</v>
       </c>
       <c r="H7">
-        <v>1.683911572988123</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7622304235339357</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1135491143116205</v>
+        <v>0.1725762491316729</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.755465864027386</v>
       </c>
       <c r="L7">
-        <v>4.373279494271429</v>
+        <v>1.14278025681412</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.443587133498582</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.361977885254703</v>
+        <v>2.337629523206886</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1884340175433152</v>
+        <v>0.2566024980062309</v>
       </c>
       <c r="E8">
-        <v>0.3445850966390367</v>
+        <v>0.1873250154239443</v>
       </c>
       <c r="F8">
-        <v>3.643291398965857</v>
+        <v>3.669927842749388</v>
       </c>
       <c r="G8">
-        <v>1.083651195912537</v>
+        <v>0.0008079840267831812</v>
       </c>
       <c r="H8">
-        <v>2.114711423872549</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8922762263642028</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1338330165674684</v>
+        <v>0.2029359864462918</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.137057982297549</v>
       </c>
       <c r="L8">
-        <v>5.358541984623628</v>
+        <v>1.379941731220583</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.360306997651655</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.564263075145448</v>
+        <v>3.071601496726146</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2769233924324084</v>
+        <v>0.3636892733718895</v>
       </c>
       <c r="E9">
-        <v>0.4564989010101286</v>
+        <v>0.2587888307871964</v>
       </c>
       <c r="F9">
-        <v>5.344959594457663</v>
+        <v>4.554185506225764</v>
       </c>
       <c r="G9">
-        <v>1.598305409922688</v>
+        <v>0.0007754599825941889</v>
       </c>
       <c r="H9">
-        <v>3.098285600206708</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.184204176299943</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1737173668992149</v>
+        <v>0.2655889306592698</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.933450183408596</v>
       </c>
       <c r="L9">
-        <v>7.394052178962767</v>
+        <v>1.876409885187684</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.215220990360422</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.482391125637605</v>
+        <v>3.650450565312156</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3543012306818412</v>
+        <v>0.4506796322181401</v>
       </c>
       <c r="E10">
-        <v>0.5409404224510155</v>
+        <v>0.3157269577527799</v>
       </c>
       <c r="F10">
-        <v>6.849886156520654</v>
+        <v>5.288791869999699</v>
       </c>
       <c r="G10">
-        <v>2.05122205754256</v>
+        <v>0.0007518536495844769</v>
       </c>
       <c r="H10">
-        <v>3.968767383587164</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.433106592146686</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2031115539024206</v>
+        <v>0.3148920069074137</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.563585448275148</v>
       </c>
       <c r="L10">
-        <v>9.006743356873756</v>
+        <v>2.270280777527461</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.122069760282642</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.912728952999316</v>
+        <v>3.925854172996992</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3942010980144204</v>
+        <v>0.4929501587646996</v>
       </c>
       <c r="E11">
-        <v>0.5802927577323373</v>
+        <v>0.3431021536086405</v>
       </c>
       <c r="F11">
-        <v>7.627746655900154</v>
+        <v>5.648655161333494</v>
       </c>
       <c r="G11">
-        <v>2.284797372071381</v>
+        <v>0.0007410716346956381</v>
       </c>
       <c r="H11">
-        <v>4.418975218722068</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.55756555358964</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2165080888453481</v>
+        <v>0.3384311102809079</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.864492599625436</v>
       </c>
       <c r="L11">
-        <v>9.784593635390564</v>
+        <v>2.458621886802035</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.083270990720052</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.078127667666024</v>
+        <v>4.032241758190025</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4102543067696871</v>
+        <v>0.5094407142557884</v>
       </c>
       <c r="E12">
-        <v>0.5953920939623103</v>
+        <v>0.3537352950389803</v>
       </c>
       <c r="F12">
-        <v>7.940653777192324</v>
+        <v>5.789382523830398</v>
       </c>
       <c r="G12">
-        <v>2.378680027087569</v>
+        <v>0.0007369714023952366</v>
       </c>
       <c r="H12">
-        <v>4.600138162248584</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.606756718767173</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2215847467780208</v>
+        <v>0.3475476404014302</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.980960602749917</v>
       </c>
       <c r="L12">
-        <v>10.08792899704463</v>
+        <v>2.531560133849695</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.069162908773791</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.042385218862137</v>
+        <v>4.009229408761826</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4067493148678807</v>
+        <v>0.5058659030837305</v>
       </c>
       <c r="E13">
-        <v>0.5921300557652174</v>
+        <v>0.3514323804019739</v>
       </c>
       <c r="F13">
-        <v>7.872344594831645</v>
+        <v>5.758862318415311</v>
       </c>
       <c r="G13">
-        <v>2.358188351357654</v>
+        <v>0.00073785543370756</v>
       </c>
       <c r="H13">
-        <v>4.560586352906427</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.596061992403435</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2204912342424024</v>
+        <v>0.3455744168878994</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.955756383837183</v>
       </c>
       <c r="L13">
-        <v>10.02215947512695</v>
+        <v>2.515774153931829</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.072174080553324</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.926283149487972</v>
+        <v>3.934562356706806</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3955008976627283</v>
+        <v>0.494296526345039</v>
       </c>
       <c r="E14">
-        <v>0.5815305607050547</v>
+        <v>0.3439712421405972</v>
       </c>
       <c r="F14">
-        <v>7.653085776272434</v>
+        <v>5.660138650845511</v>
       </c>
       <c r="G14">
-        <v>2.292401466199493</v>
+        <v>0.0007407347251397689</v>
       </c>
       <c r="H14">
-        <v>4.433644424411398</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.561568103310876</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2169256748401587</v>
+        <v>0.3391767853830316</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.874020897910441</v>
       </c>
       <c r="L14">
-        <v>9.809355551205584</v>
+        <v>2.464588191572034</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.082098148891589</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.855507155534497</v>
+        <v>3.889111863183928</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3887439241714787</v>
+        <v>0.4872761481618113</v>
       </c>
       <c r="E15">
-        <v>0.5750661609395209</v>
+        <v>0.3394376645177317</v>
       </c>
       <c r="F15">
-        <v>7.521356488768305</v>
+        <v>5.600273111622727</v>
       </c>
       <c r="G15">
-        <v>2.252867395826399</v>
+        <v>0.000742495749379128</v>
       </c>
       <c r="H15">
-        <v>4.357386799092552</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.540723953106649</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2147421460168317</v>
+        <v>0.3352859107888975</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.824299601465611</v>
       </c>
       <c r="L15">
-        <v>9.680240205764903</v>
+        <v>2.433455966186017</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.088255331118361</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.454570393120719</v>
+        <v>3.632724622443448</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3518085672989457</v>
+        <v>0.4479791372088471</v>
       </c>
       <c r="E16">
-        <v>0.5383922371287966</v>
+        <v>0.3139719855098804</v>
       </c>
       <c r="F16">
-        <v>6.801303964578921</v>
+        <v>5.265852316432216</v>
       </c>
       <c r="G16">
-        <v>2.036623683563107</v>
+        <v>0.0007525565122039713</v>
       </c>
       <c r="H16">
-        <v>3.940655788365547</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.425233715777495</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.202236572659622</v>
+        <v>0.313379481270033</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.544245324342029</v>
       </c>
       <c r="L16">
-        <v>8.956983703906559</v>
+        <v>2.25818086317912</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.124682965502089</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.212229600298656</v>
+        <v>3.47876860609648</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.330510485451839</v>
+        <v>0.4246242883889977</v>
       </c>
       <c r="E17">
-        <v>0.5161704801398841</v>
+        <v>0.2987623180985182</v>
       </c>
       <c r="F17">
-        <v>6.386375441463912</v>
+        <v>5.067768315466196</v>
       </c>
       <c r="G17">
-        <v>1.911887419169034</v>
+        <v>0.0007587101779301694</v>
       </c>
       <c r="H17">
-        <v>3.700591812284813</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.357534481547589</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1945713176847867</v>
+        <v>0.3002527552262819</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.376397093778536</v>
       </c>
       <c r="L17">
-        <v>8.52604949709152</v>
+        <v>2.153196911666981</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.147991472942692</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.073988196055041</v>
+        <v>3.391329066175956</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3186817852778887</v>
+        <v>0.4114383384594191</v>
       </c>
       <c r="E18">
-        <v>0.5034725888452414</v>
+        <v>0.2901489189782538</v>
       </c>
       <c r="F18">
-        <v>6.156113918652267</v>
+        <v>4.956199660380122</v>
       </c>
       <c r="G18">
-        <v>1.842620185929235</v>
+        <v>0.0007622463038553295</v>
       </c>
       <c r="H18">
-        <v>3.567392712308191</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.3196194775973</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1901648194441101</v>
+        <v>0.2928040917000914</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.281163675884926</v>
       </c>
       <c r="L18">
-        <v>8.282162862362128</v>
+        <v>2.093654597845273</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.161729590057888</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.027363544199147</v>
+        <v>3.361904662006452</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.314742773467259</v>
+        <v>0.4070136748879349</v>
       </c>
       <c r="E19">
-        <v>0.4991861806082554</v>
+        <v>0.2872542479954845</v>
       </c>
       <c r="F19">
-        <v>6.079473896945046</v>
+        <v>4.918809780998515</v>
       </c>
       <c r="G19">
-        <v>1.819557545592204</v>
+        <v>0.0007634433094259617</v>
       </c>
       <c r="H19">
-        <v>3.523062319658749</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.306946646026105</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.188673253758882</v>
+        <v>0.2902983762481171</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.249131231199613</v>
       </c>
       <c r="L19">
-        <v>8.200211187934514</v>
+        <v>2.073631036889566</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.166436143732895</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.237904742043668</v>
+        <v>3.495040026347681</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3327325118352746</v>
+        <v>0.427084248992486</v>
       </c>
       <c r="E20">
-        <v>0.5185270238273603</v>
+        <v>0.3003671041688207</v>
       </c>
       <c r="F20">
-        <v>6.429647132762227</v>
+        <v>5.088605018342264</v>
       </c>
       <c r="G20">
-        <v>1.924900616394666</v>
+        <v>0.0007580555241100664</v>
       </c>
       <c r="H20">
-        <v>3.725624907096488</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.364632455196045</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1953870523942456</v>
+        <v>0.301639334045376</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.394126309335235</v>
       </c>
       <c r="L20">
-        <v>8.571497308865986</v>
+        <v>2.164283554768929</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.145475453876955</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.960312859616579</v>
+        <v>3.956433684418926</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3987764428435554</v>
+        <v>0.4976807335835929</v>
       </c>
       <c r="E21">
-        <v>0.5846378745337688</v>
+        <v>0.3461550182770594</v>
       </c>
       <c r="F21">
-        <v>7.716939036183845</v>
+        <v>5.689008387966396</v>
       </c>
       <c r="G21">
-        <v>2.311562181428911</v>
+        <v>0.0007398895779378023</v>
       </c>
       <c r="H21">
-        <v>4.470611073044296</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.571639501226812</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2179728662562255</v>
+        <v>0.3410500271565837</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.897955899827394</v>
       </c>
       <c r="L21">
-        <v>9.871598294299702</v>
+        <v>2.479576134937162</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.079166723691699</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.447150735605817</v>
+        <v>4.270437238515854</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.447675793741837</v>
+        <v>0.5467005014307631</v>
       </c>
       <c r="E22">
-        <v>0.6290527437962012</v>
+        <v>0.3776705044862112</v>
       </c>
       <c r="F22">
-        <v>8.66939817930583</v>
+        <v>6.107856146797729</v>
       </c>
       <c r="G22">
-        <v>2.597186692891796</v>
+        <v>0.0007279091070737826</v>
       </c>
       <c r="H22">
-        <v>5.022199756077413</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1.719286449475291</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2327553859994005</v>
+        <v>0.3680172099457195</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>4.242231896136587</v>
       </c>
       <c r="L22">
-        <v>10.77450854417313</v>
+        <v>2.695256963554101</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.039279212338442</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.185698305477274</v>
+        <v>4.10156791068988</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4209262921097263</v>
+        <v>0.5202363228287652</v>
       </c>
       <c r="E23">
-        <v>0.6052070645449206</v>
+        <v>0.3606828612865129</v>
       </c>
       <c r="F23">
-        <v>8.148596425292027</v>
+        <v>5.881591821877095</v>
       </c>
       <c r="G23">
-        <v>2.441048554060956</v>
+        <v>0.0007343175206868597</v>
       </c>
       <c r="H23">
-        <v>4.720550033391959</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.639159970554545</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2248637310717072</v>
+        <v>0.3534965291148922</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4.056928932785922</v>
       </c>
       <c r="L23">
-        <v>10.28662249276994</v>
+        <v>2.579146755217778</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.060225115796314</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.226293678430977</v>
+        <v>3.487680404984303</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3317266567129593</v>
+        <v>0.4259713568568486</v>
       </c>
       <c r="E24">
-        <v>0.5174613926430141</v>
+        <v>0.2996411768063538</v>
       </c>
       <c r="F24">
-        <v>6.410058529553424</v>
+        <v>5.079177597350281</v>
       </c>
       <c r="G24">
-        <v>1.919009834318302</v>
+        <v>0.000758351497576545</v>
       </c>
       <c r="H24">
-        <v>3.714292639086636</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.361420358555534</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1950182576232393</v>
+        <v>0.3010121594154498</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.386107025672885</v>
       </c>
       <c r="L24">
-        <v>8.550938486534136</v>
+        <v>2.159268768579352</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.14661189917183</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.234276779554079</v>
+        <v>2.867107725560288</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2513242115377352</v>
+        <v>0.3335164925838257</v>
       </c>
       <c r="E25">
-        <v>0.4259468363534538</v>
+        <v>0.2388241613194921</v>
       </c>
       <c r="F25">
-        <v>4.849653462138292</v>
+        <v>4.302162442769827</v>
       </c>
       <c r="G25">
-        <v>1.448847328979753</v>
+        <v>0.0007841769786275371</v>
       </c>
       <c r="H25">
-        <v>2.81192561995914</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.100210847476049</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1629133399439766</v>
+        <v>0.2481798390150374</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.711398009608075</v>
       </c>
       <c r="L25">
-        <v>6.827661657479695</v>
+        <v>1.73781489652896</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.252302454044226</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.435503772930929</v>
+        <v>0.2687964406655254</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2706977563003079</v>
+        <v>0.03702884567117337</v>
       </c>
       <c r="E2">
-        <v>0.1968351160475876</v>
+        <v>0.1940063172581716</v>
       </c>
       <c r="F2">
-        <v>3.784430654148565</v>
+        <v>0.179966910675688</v>
       </c>
       <c r="G2">
-        <v>0.0008034253211808238</v>
+        <v>0.2359923754243667</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1415773898039205</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2113305278705866</v>
+        <v>0.4686339160193</v>
       </c>
       <c r="K2">
-        <v>2.243211423375044</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.44601196958547</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.18909708278449</v>
       </c>
       <c r="N2">
-        <v>1.338902241945696</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.7502084372793263</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.154726879362897</v>
+        <v>0.2347212707958874</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2303953399179761</v>
+        <v>0.03939722459630701</v>
       </c>
       <c r="E3">
-        <v>0.1695445254910695</v>
+        <v>0.1699068878758325</v>
       </c>
       <c r="F3">
-        <v>3.45911958743946</v>
+        <v>0.1667145347624057</v>
       </c>
       <c r="G3">
-        <v>0.0008167382570079654</v>
+        <v>0.2021141956481713</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1360086135430123</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1871879827513538</v>
+        <v>0.4038972520834818</v>
       </c>
       <c r="K3">
-        <v>1.938609031309795</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.256532666878684</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.00137880614326</v>
       </c>
       <c r="N3">
-        <v>1.402306922439756</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.666144359772332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.987003765017647</v>
+        <v>0.2140280795160407</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.206501666534308</v>
+        <v>0.04143080990054671</v>
       </c>
       <c r="E4">
-        <v>0.1532107867489678</v>
+        <v>0.1562494670319623</v>
       </c>
       <c r="F4">
-        <v>3.269726075256699</v>
+        <v>0.1617913243883962</v>
       </c>
       <c r="G4">
-        <v>0.0008250779755272016</v>
+        <v>0.1835191828949334</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1337726036758085</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1726555496939284</v>
+        <v>0.3661283998539773</v>
       </c>
       <c r="K4">
-        <v>1.756456835472761</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.143395365628976</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.6754992702071</v>
       </c>
       <c r="N4">
-        <v>1.443356726198097</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6216730562460526</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.919686624997723</v>
+        <v>0.205645741175303</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1969446908322112</v>
+        <v>0.04239033683632698</v>
       </c>
       <c r="E5">
-        <v>0.1466414658291697</v>
+        <v>0.1509310091323144</v>
       </c>
       <c r="F5">
-        <v>3.194855684980922</v>
+        <v>0.160507387440223</v>
       </c>
       <c r="G5">
-        <v>0.0008285224184877253</v>
+        <v>0.1764320911505877</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1331307524977703</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1667915444923054</v>
+        <v>0.3511595468798561</v>
       </c>
       <c r="K5">
-        <v>1.683275069388429</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.097982948356218</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.13860824012491</v>
       </c>
       <c r="N5">
-        <v>1.460590527059416</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6051517700465325</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.908567041504341</v>
+        <v>0.2042566979795595</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1953677012735682</v>
+        <v>0.04255716818997257</v>
       </c>
       <c r="E6">
-        <v>0.145555353760038</v>
+        <v>0.1500617469247487</v>
       </c>
       <c r="F6">
-        <v>3.182555026933187</v>
+        <v>0.1603354790514047</v>
       </c>
       <c r="G6">
-        <v>0.0008290972574955813</v>
+        <v>0.1752831576855343</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1330396710449762</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1658209320877333</v>
+        <v>0.3486974639775724</v>
       </c>
       <c r="K6">
-        <v>1.67118166816249</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.090480969545752</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.04963861598122</v>
       </c>
       <c r="N6">
-        <v>1.463481990974337</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6024997943045065</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.986091905534522</v>
+        <v>0.2139148378435181</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.206372091836613</v>
+        <v>0.04144323897770619</v>
       </c>
       <c r="E7">
-        <v>0.1531218631117213</v>
+        <v>0.1561767886087466</v>
       </c>
       <c r="F7">
-        <v>3.268707361253064</v>
+        <v>0.1617711909504145</v>
       </c>
       <c r="G7">
-        <v>0.0008251242370049311</v>
+        <v>0.1834216978856489</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1337628920629967</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1725762491316729</v>
+        <v>0.3659249075132607</v>
       </c>
       <c r="K7">
-        <v>1.755465864027386</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.14278025681412</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.66824591251827</v>
       </c>
       <c r="N7">
-        <v>1.443587133498582</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6214440050719077</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.337629523206886</v>
+        <v>0.2569951444432093</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2566024980062309</v>
+        <v>0.03771562717429333</v>
       </c>
       <c r="E8">
-        <v>0.1873250154239443</v>
+        <v>0.1854347432064216</v>
       </c>
       <c r="F8">
-        <v>3.669927842749388</v>
+        <v>0.1746757905063845</v>
       </c>
       <c r="G8">
-        <v>0.0008079840267831812</v>
+        <v>0.2238123707719808</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1393937719679244</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2029359864462918</v>
+        <v>0.4458529982658916</v>
       </c>
       <c r="K8">
-        <v>2.137057982297549</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1.379941731220583</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.43054448937463</v>
       </c>
       <c r="N8">
-        <v>1.360306997651655</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.7196160669187179</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.071601496726146</v>
+        <v>0.3436669753429413</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3636892733718895</v>
+        <v>0.03579527829327134</v>
       </c>
       <c r="E9">
-        <v>0.2587888307871964</v>
+        <v>0.2539706416939254</v>
       </c>
       <c r="F9">
-        <v>4.554185506225764</v>
+        <v>0.2299222400039085</v>
       </c>
       <c r="G9">
-        <v>0.0007754599825941889</v>
+        <v>0.3238378666070219</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.161275028051918</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2655889306592698</v>
+        <v>0.6223511326080313</v>
       </c>
       <c r="K9">
-        <v>2.933450183408596</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.876409885187684</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21.03668534353761</v>
       </c>
       <c r="N9">
-        <v>1.215220990360422</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.9788849809208955</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.650450565312156</v>
+        <v>0.409280410140525</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4506796322181401</v>
+        <v>0.03901815565150457</v>
       </c>
       <c r="E10">
-        <v>0.3157269577527799</v>
+        <v>0.3147427997683323</v>
       </c>
       <c r="F10">
-        <v>5.288791869999699</v>
+        <v>0.296064350120993</v>
       </c>
       <c r="G10">
-        <v>0.0007518536495844769</v>
+        <v>0.4154376440968548</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.186327295821485</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3148920069074137</v>
+        <v>0.7709864396471602</v>
       </c>
       <c r="K10">
-        <v>3.563585448275148</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>2.270280777527461</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>25.35809226250967</v>
       </c>
       <c r="N10">
-        <v>1.122069760282642</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.226519686683616</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.925854172996992</v>
+        <v>0.4397096705683481</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4929501587646996</v>
+        <v>0.04188525533503906</v>
       </c>
       <c r="E11">
-        <v>0.3431021536086405</v>
+        <v>0.3457105606568049</v>
       </c>
       <c r="F11">
-        <v>5.648655161333494</v>
+        <v>0.3337471985061455</v>
       </c>
       <c r="G11">
-        <v>0.0007410716346956381</v>
+        <v>0.4625468965546702</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.20033026250006</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3384311102809079</v>
+        <v>0.8447458728388568</v>
       </c>
       <c r="K11">
-        <v>3.864492599625436</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>2.458621886802035</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>27.39319618454203</v>
       </c>
       <c r="N11">
-        <v>1.083270990720052</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.356154178546205</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.032241758190025</v>
+        <v>0.4513318579385412</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5094407142557884</v>
+        <v>0.04321532771366066</v>
       </c>
       <c r="E12">
-        <v>0.3537352950389803</v>
+        <v>0.3580297823088188</v>
       </c>
       <c r="F12">
-        <v>5.789382523830398</v>
+        <v>0.3493231653209321</v>
       </c>
       <c r="G12">
-        <v>0.0007369714023952366</v>
+        <v>0.4813248529663667</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.206075949807726</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3475476404014302</v>
+        <v>0.8737794211956782</v>
       </c>
       <c r="K12">
-        <v>3.980960602749917</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>2.531560133849695</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>28.17648794474127</v>
       </c>
       <c r="N12">
-        <v>1.069162908773791</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.408161027036897</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.009229408761826</v>
+        <v>0.4488241177474208</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5058659030837305</v>
+        <v>0.04291720941825616</v>
       </c>
       <c r="E13">
-        <v>0.3514323804019739</v>
+        <v>0.3553481465276178</v>
       </c>
       <c r="F13">
-        <v>5.758862318415311</v>
+        <v>0.3459066060115958</v>
       </c>
       <c r="G13">
-        <v>0.00073785543370756</v>
+        <v>0.4772360985822814</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2048175710076094</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3455744168878994</v>
+        <v>0.867473444049665</v>
       </c>
       <c r="K13">
-        <v>3.955756383837183</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>2.515774153931829</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>28.00718050426553</v>
       </c>
       <c r="N13">
-        <v>1.072174080553324</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.396822077027508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.934562356706806</v>
+        <v>0.4406637457641835</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.494296526345039</v>
+        <v>0.04198950109498156</v>
       </c>
       <c r="E14">
-        <v>0.3439712421405972</v>
+        <v>0.3467114428612206</v>
       </c>
       <c r="F14">
-        <v>5.660138650845511</v>
+        <v>0.3350010749014132</v>
       </c>
       <c r="G14">
-        <v>0.0007407347251397689</v>
+        <v>0.4640719473337214</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2007936435423403</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3391767853830316</v>
+        <v>0.8471109453592618</v>
       </c>
       <c r="K14">
-        <v>3.874020897910441</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>2.464588191572034</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>27.45736717273098</v>
       </c>
       <c r="N14">
-        <v>1.082098148891589</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.360371285942563</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.889111863183928</v>
+        <v>0.4356787227454078</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4872761481618113</v>
+        <v>0.04145452445972353</v>
       </c>
       <c r="E15">
-        <v>0.3394376645177317</v>
+        <v>0.341502228534118</v>
       </c>
       <c r="F15">
-        <v>5.600273111622727</v>
+        <v>0.328498358883472</v>
       </c>
       <c r="G15">
-        <v>0.000742495749379128</v>
+        <v>0.4561359541352488</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1983888321086056</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3352859107888975</v>
+        <v>0.8347892775279462</v>
       </c>
       <c r="K15">
-        <v>3.824299601465611</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>2.433455966186017</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>27.12232686530689</v>
       </c>
       <c r="N15">
-        <v>1.088255331118361</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.338439740221759</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.632724622443448</v>
+        <v>0.4073047681427937</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4479791372088471</v>
+        <v>0.03886241891350295</v>
       </c>
       <c r="E16">
-        <v>0.3139719855098804</v>
+        <v>0.3127950421488563</v>
       </c>
       <c r="F16">
-        <v>5.265852316432216</v>
+        <v>0.2937718405016554</v>
       </c>
       <c r="G16">
-        <v>0.0007525565122039713</v>
+        <v>0.4124810895908553</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1854701523303817</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.313379481270033</v>
+        <v>0.7663073085444836</v>
       </c>
       <c r="K16">
-        <v>3.544245324342029</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2.25818086317912</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>25.22670330782762</v>
       </c>
       <c r="N16">
-        <v>1.124682965502089</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.218428014759382</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.47876860609648</v>
+        <v>0.3900575496625862</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4246242883889977</v>
+        <v>0.03765859481458023</v>
       </c>
       <c r="E17">
-        <v>0.2987623180985182</v>
+        <v>0.2961086100890924</v>
       </c>
       <c r="F17">
-        <v>5.067768315466196</v>
+        <v>0.2745526330399954</v>
       </c>
       <c r="G17">
-        <v>0.0007587101779301694</v>
+        <v>0.3871955404204073</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1782570695465324</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3002527552262819</v>
+        <v>0.7260101323154942</v>
       </c>
       <c r="K17">
-        <v>3.376397093778536</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>2.153196911666981</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>24.08327174681347</v>
       </c>
       <c r="N17">
-        <v>1.147991472942692</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.149464286483266</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.391329066175956</v>
+        <v>0.3801910534457704</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4114383384594191</v>
+        <v>0.03709498058773164</v>
       </c>
       <c r="E18">
-        <v>0.2901489189782538</v>
+        <v>0.2868155028661405</v>
       </c>
       <c r="F18">
-        <v>4.956199660380122</v>
+        <v>0.2641980185059083</v>
       </c>
       <c r="G18">
-        <v>0.0007622463038553295</v>
+        <v>0.3731530479392404</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1743488602348435</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2928040917000914</v>
+        <v>0.7033949397614236</v>
       </c>
       <c r="K18">
-        <v>3.281163675884926</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>2.093654597845273</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>23.43192986368825</v>
       </c>
       <c r="N18">
-        <v>1.161729590057888</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.111363561413356</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.361904662006452</v>
+        <v>0.3768592041681273</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4070136748879349</v>
+        <v>0.03692512035846107</v>
       </c>
       <c r="E19">
-        <v>0.2872542479954845</v>
+        <v>0.2837182347558098</v>
       </c>
       <c r="F19">
-        <v>4.918809780998515</v>
+        <v>0.2608064676478321</v>
       </c>
       <c r="G19">
-        <v>0.0007634433094259617</v>
+        <v>0.3684802832467824</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1730650567014607</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2902983762481171</v>
+        <v>0.6958285870813228</v>
       </c>
       <c r="K19">
-        <v>3.249131231199613</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>2.073631036889566</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>23.21241142116014</v>
       </c>
       <c r="N19">
-        <v>1.166436143732895</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.098719175141326</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.495040026347681</v>
+        <v>0.3918878876706913</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.427084248992486</v>
+        <v>0.03777313490407153</v>
       </c>
       <c r="E20">
-        <v>0.3003671041688207</v>
+        <v>0.2978526487104176</v>
       </c>
       <c r="F20">
-        <v>5.088605018342264</v>
+        <v>0.2765247127594108</v>
       </c>
       <c r="G20">
-        <v>0.0007580555241100664</v>
+        <v>0.3898343337688743</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1789995647806109</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.301639334045376</v>
+        <v>0.7302401735340709</v>
       </c>
       <c r="K20">
-        <v>3.394126309335235</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>2.164283554768929</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>24.20431932448702</v>
       </c>
       <c r="N20">
-        <v>1.145475453876955</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.156640436879002</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.956433684418926</v>
+        <v>0.4430578120240369</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4976807335835929</v>
+        <v>0.04225496613083379</v>
       </c>
       <c r="E21">
-        <v>0.3461550182770594</v>
+        <v>0.3492311237488863</v>
       </c>
       <c r="F21">
-        <v>5.689008387966396</v>
+        <v>0.3381669100267715</v>
       </c>
       <c r="G21">
-        <v>0.0007398895779378023</v>
+        <v>0.467911695923803</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2019629309805993</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3410500271565837</v>
+        <v>0.8530599801868988</v>
       </c>
       <c r="K21">
-        <v>3.897955899827394</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>2.479576134937162</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>27.61849317596699</v>
       </c>
       <c r="N21">
-        <v>1.079166723691699</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.370994332995821</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.270437238515854</v>
+        <v>0.4770883546583917</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5467005014307631</v>
+        <v>0.04663646434785562</v>
       </c>
       <c r="E22">
-        <v>0.3776705044862112</v>
+        <v>0.3863376446161695</v>
       </c>
       <c r="F22">
-        <v>6.107856146797729</v>
+        <v>0.3862022155163274</v>
       </c>
       <c r="G22">
-        <v>0.0007279091070737826</v>
+        <v>0.5245086845359452</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2195958073211131</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3680172099457195</v>
+        <v>0.9398982290175155</v>
       </c>
       <c r="K22">
-        <v>4.242231896136587</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>2.695256963554101</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>29.9252605613562</v>
       </c>
       <c r="N22">
-        <v>1.039279212338442</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.528385553074799</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.10156791068988</v>
+        <v>0.45886590061275</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5202363228287652</v>
+        <v>0.04414804399867478</v>
       </c>
       <c r="E23">
-        <v>0.3606828612865129</v>
+        <v>0.3661649145252923</v>
       </c>
       <c r="F23">
-        <v>5.881591821877095</v>
+        <v>0.3597726740796503</v>
       </c>
       <c r="G23">
-        <v>0.0007343175206868597</v>
+        <v>0.4937317701876083</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2099182559371258</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3534965291148922</v>
+        <v>0.8928632383140211</v>
       </c>
       <c r="K23">
-        <v>4.056928932785922</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>2.579146755217778</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>28.68614161327673</v>
       </c>
       <c r="N23">
-        <v>1.060225115796314</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.442616560325121</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.487680404984303</v>
+        <v>0.3910602398831173</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4259713568568486</v>
+        <v>0.03772095424169208</v>
       </c>
       <c r="E24">
-        <v>0.2996411768063538</v>
+        <v>0.2970632422394672</v>
       </c>
       <c r="F24">
-        <v>5.079177597350281</v>
+        <v>0.2756309870361946</v>
       </c>
       <c r="G24">
-        <v>0.000758351497576545</v>
+        <v>0.3886398063851431</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1786631441907502</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3010121594154498</v>
+        <v>0.7283260677356367</v>
       </c>
       <c r="K24">
-        <v>3.386107025672885</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>2.159268768579352</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>24.1495751188383</v>
       </c>
       <c r="N24">
-        <v>1.14661189917183</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.153391313862869</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.867107725560288</v>
+        <v>0.3199281743422517</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3335164925838257</v>
+        <v>0.0356142150615355</v>
       </c>
       <c r="E25">
-        <v>0.2388241613194921</v>
+        <v>0.2339037766363532</v>
       </c>
       <c r="F25">
-        <v>4.302162442769827</v>
+        <v>0.211089312237057</v>
       </c>
       <c r="G25">
-        <v>0.0007841769786275371</v>
+        <v>0.2940415450190699</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1539730463229319</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2481798390150374</v>
+        <v>0.5718544591657064</v>
       </c>
       <c r="K25">
-        <v>2.711398009608075</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.73781489652896</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.49178225832691</v>
       </c>
       <c r="N25">
-        <v>1.252302454044226</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.9000568345719273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2687964406655254</v>
+        <v>0.1424542995417397</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03702884567117337</v>
+        <v>0.2011023862291026</v>
       </c>
       <c r="E2">
-        <v>0.1940063172581716</v>
+        <v>0.1778968200581872</v>
       </c>
       <c r="F2">
-        <v>0.179966910675688</v>
+        <v>0.6524037515926082</v>
       </c>
       <c r="G2">
-        <v>0.2359923754243667</v>
+        <v>0.2904879055989156</v>
       </c>
       <c r="H2">
-        <v>0.1415773898039205</v>
+        <v>0.4574657667400999</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4686339160193</v>
+        <v>0.246557002603268</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.18909708278449</v>
+        <v>5.546992588574966</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7502084372793263</v>
+        <v>1.421277761602738</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2347212707958874</v>
+        <v>0.1329270314379301</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03939722459630701</v>
+        <v>0.2061636599317538</v>
       </c>
       <c r="E3">
-        <v>0.1699068878758325</v>
+        <v>0.1758693561622593</v>
       </c>
       <c r="F3">
-        <v>0.1667145347624057</v>
+        <v>0.670974825369882</v>
       </c>
       <c r="G3">
-        <v>0.2021141956481713</v>
+        <v>0.2939821842161052</v>
       </c>
       <c r="H3">
-        <v>0.1360086135430123</v>
+        <v>0.4652759133666251</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4038972520834818</v>
+        <v>0.2339875107096816</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.00137880614326</v>
+        <v>4.862844394437758</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.666144359772332</v>
+        <v>1.444658577017236</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2140280795160407</v>
+        <v>0.127146225585733</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04143080990054671</v>
+        <v>0.2094778388629521</v>
       </c>
       <c r="E4">
-        <v>0.1562494670319623</v>
+        <v>0.1748423915855355</v>
       </c>
       <c r="F4">
-        <v>0.1617913243883962</v>
+        <v>0.6833202303861121</v>
       </c>
       <c r="G4">
-        <v>0.1835191828949334</v>
+        <v>0.2966503035784953</v>
       </c>
       <c r="H4">
-        <v>0.1337726036758085</v>
+        <v>0.4704995684757094</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3661283998539773</v>
+        <v>0.2265272836485082</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.6754992702071</v>
+        <v>4.440771257589233</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6216730562460526</v>
+        <v>1.461006988380817</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.205645741175303</v>
+        <v>0.124807969784456</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04239033683632698</v>
+        <v>0.2108800569751637</v>
       </c>
       <c r="E5">
-        <v>0.1509310091323144</v>
+        <v>0.1744781841268974</v>
       </c>
       <c r="F5">
-        <v>0.160507387440223</v>
+        <v>0.6885858796839024</v>
       </c>
       <c r="G5">
-        <v>0.1764320911505877</v>
+        <v>0.2978673455329783</v>
       </c>
       <c r="H5">
-        <v>0.1331307524977703</v>
+        <v>0.4727352548825365</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3511595468798561</v>
+        <v>0.2235511146765958</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.13860824012491</v>
+        <v>4.268272601079673</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6051517700465325</v>
+        <v>1.468165213375272</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2042566979795595</v>
+        <v>0.1244207630766425</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04255716818997257</v>
+        <v>0.2111160066951925</v>
       </c>
       <c r="E6">
-        <v>0.1500617469247487</v>
+        <v>0.1744209723910046</v>
       </c>
       <c r="F6">
-        <v>0.1603354790514047</v>
+        <v>0.6894743519688653</v>
       </c>
       <c r="G6">
-        <v>0.1752831576855343</v>
+        <v>0.2980772232701838</v>
       </c>
       <c r="H6">
-        <v>0.1330396710449762</v>
+        <v>0.4731129321276484</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3486974639775724</v>
+        <v>0.2230607628350327</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.04963861598122</v>
+        <v>4.239599228025355</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6024997943045065</v>
+        <v>1.469383651371857</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2139148378435181</v>
+        <v>0.1271146201467275</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04144323897770619</v>
+        <v>0.2094965408381242</v>
       </c>
       <c r="E7">
-        <v>0.1561767886087466</v>
+        <v>0.1748372605898183</v>
       </c>
       <c r="F7">
-        <v>0.1617711909504145</v>
+        <v>0.6833902970605763</v>
       </c>
       <c r="G7">
-        <v>0.1834216978856489</v>
+        <v>0.296666193816371</v>
       </c>
       <c r="H7">
-        <v>0.1337628920629967</v>
+        <v>0.4705292873484268</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3659249075132607</v>
+        <v>0.2264868881593571</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.66824591251827</v>
+        <v>4.438446901319622</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6214440050719077</v>
+        <v>1.46110152444237</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2569951444432093</v>
+        <v>0.1391550521503291</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03771562717429333</v>
+        <v>0.2028044821121142</v>
       </c>
       <c r="E8">
-        <v>0.1854347432064216</v>
+        <v>0.1771522103618892</v>
       </c>
       <c r="F8">
-        <v>0.1746757905063845</v>
+        <v>0.6586100511675106</v>
       </c>
       <c r="G8">
-        <v>0.2238123707719808</v>
+        <v>0.2915832677034444</v>
       </c>
       <c r="H8">
-        <v>0.1393937719679244</v>
+        <v>0.4600694328751516</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4458529982658916</v>
+        <v>0.2421690871316429</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.43054448937463</v>
+        <v>5.311515526824621</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7196160669187179</v>
+        <v>1.428922969451065</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3436669753429413</v>
+        <v>0.1633096474751596</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03579527829327134</v>
+        <v>0.1913324215752823</v>
       </c>
       <c r="E9">
-        <v>0.2539706416939254</v>
+        <v>0.18344552213523</v>
       </c>
       <c r="F9">
-        <v>0.2299222400039085</v>
+        <v>0.6175959377957909</v>
       </c>
       <c r="G9">
-        <v>0.3238378666070219</v>
+        <v>0.2858368229487382</v>
       </c>
       <c r="H9">
-        <v>0.161275028051918</v>
+        <v>0.4429849308802574</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6223511326080313</v>
+        <v>0.2750064583307505</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.03668534353761</v>
+        <v>7.007702239187438</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9788849809208955</v>
+        <v>1.381850811136218</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.409280410140525</v>
+        <v>0.1813842619805683</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03901815565150457</v>
+        <v>0.1839274416348857</v>
       </c>
       <c r="E10">
-        <v>0.3147427997683323</v>
+        <v>0.1891753285734481</v>
       </c>
       <c r="F10">
-        <v>0.296064350120993</v>
+        <v>0.5922202471140565</v>
       </c>
       <c r="G10">
-        <v>0.4154376440968548</v>
+        <v>0.2842909973730059</v>
       </c>
       <c r="H10">
-        <v>0.186327295821485</v>
+        <v>0.4325628556206453</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7709864396471602</v>
+        <v>0.3004674241690708</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.35809226250967</v>
+        <v>8.244409026353196</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.226519686683616</v>
+        <v>1.357342429715629</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4397096705683481</v>
+        <v>0.1896777238767129</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04188525533503906</v>
+        <v>0.1807847701872802</v>
       </c>
       <c r="E11">
-        <v>0.3457105606568049</v>
+        <v>0.192030793056837</v>
       </c>
       <c r="F11">
-        <v>0.3337471985061455</v>
+        <v>0.5817386181956579</v>
       </c>
       <c r="G11">
-        <v>0.4625468965546702</v>
+        <v>0.2841910502884701</v>
       </c>
       <c r="H11">
-        <v>0.20033026250006</v>
+        <v>0.4282928039644815</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8447458728388568</v>
+        <v>0.312355616623023</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>27.39319618454203</v>
+        <v>8.805039040506074</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.356154178546205</v>
+        <v>1.348446195448503</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4513318579385412</v>
+        <v>0.1928284108438874</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04321532771366066</v>
+        <v>0.1796275370309814</v>
       </c>
       <c r="E12">
-        <v>0.3580297823088188</v>
+        <v>0.1931486157041036</v>
       </c>
       <c r="F12">
-        <v>0.3493231653209321</v>
+        <v>0.5779246582451663</v>
       </c>
       <c r="G12">
-        <v>0.4813248529663667</v>
+        <v>0.2842417744123509</v>
       </c>
       <c r="H12">
-        <v>0.206075949807726</v>
+        <v>0.4267443049057391</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8737794211956782</v>
+        <v>0.3169026404015369</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>28.17648794474127</v>
+        <v>9.017059504469444</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.408161027036897</v>
+        <v>1.345406766665548</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4488241177474208</v>
+        <v>0.1921494050662602</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04291720941825616</v>
+        <v>0.1798753022518724</v>
       </c>
       <c r="E13">
-        <v>0.3553481465276178</v>
+        <v>0.1929062364919645</v>
       </c>
       <c r="F13">
-        <v>0.3459066060115958</v>
+        <v>0.5787391198799412</v>
       </c>
       <c r="G13">
-        <v>0.4772360985822814</v>
+        <v>0.2842268816299764</v>
       </c>
       <c r="H13">
-        <v>0.2048175710076094</v>
+        <v>0.4270747444165295</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.867473444049665</v>
+        <v>0.3159213256708995</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>28.00718050426553</v>
+        <v>8.971409404023916</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.396822077027508</v>
+        <v>1.346046625712034</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4406637457641835</v>
+        <v>0.1899367303224579</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04198950109498156</v>
+        <v>0.1806889039820376</v>
       </c>
       <c r="E14">
-        <v>0.3467114428612206</v>
+        <v>0.1921220208250318</v>
       </c>
       <c r="F14">
-        <v>0.3350010749014132</v>
+        <v>0.5814217164591469</v>
       </c>
       <c r="G14">
-        <v>0.4640719473337214</v>
+        <v>0.2841934377896962</v>
       </c>
       <c r="H14">
-        <v>0.2007936435423403</v>
+        <v>0.4281640313448776</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8471109453592618</v>
+        <v>0.3127287893162816</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>27.45736717273098</v>
+        <v>8.822487640287306</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.360371285942563</v>
+        <v>1.348189507238573</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4356787227454078</v>
+        <v>0.1885827195819445</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04145452445972353</v>
+        <v>0.1811915441495344</v>
       </c>
       <c r="E15">
-        <v>0.341502228534118</v>
+        <v>0.1916464440942534</v>
       </c>
       <c r="F15">
-        <v>0.328498358883472</v>
+        <v>0.583085171284722</v>
       </c>
       <c r="G15">
-        <v>0.4561359541352488</v>
+        <v>0.2841845414872353</v>
       </c>
       <c r="H15">
-        <v>0.1983888321086056</v>
+        <v>0.4288401909844168</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8347892775279462</v>
+        <v>0.310779196000226</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>27.12232686530689</v>
+        <v>8.731232674352157</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.338439740221759</v>
+        <v>1.349545141284835</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4073047681427937</v>
+        <v>0.1808436885707749</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03886241891350295</v>
+        <v>0.1841373974435641</v>
       </c>
       <c r="E16">
-        <v>0.3127950421488563</v>
+        <v>0.1889937876521586</v>
       </c>
       <c r="F16">
-        <v>0.2937718405016554</v>
+        <v>0.5929268281725442</v>
       </c>
       <c r="G16">
-        <v>0.4124810895908553</v>
+        <v>0.2843098239111868</v>
       </c>
       <c r="H16">
-        <v>0.1854701523303817</v>
+        <v>0.4328514551066718</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7663073085444836</v>
+        <v>0.2996967621012487</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.22670330782762</v>
+        <v>8.207731445582567</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.218428014759382</v>
+        <v>1.357969614898366</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3900575496625862</v>
+        <v>0.1761142076767612</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03765859481458023</v>
+        <v>0.1860026822097538</v>
       </c>
       <c r="E17">
-        <v>0.2961086100890924</v>
+        <v>0.1874307331997755</v>
       </c>
       <c r="F17">
-        <v>0.2745526330399954</v>
+        <v>0.5992381217104636</v>
       </c>
       <c r="G17">
-        <v>0.3871955404204073</v>
+        <v>0.284542483680255</v>
       </c>
       <c r="H17">
-        <v>0.1782570695465324</v>
+        <v>0.4354334013119256</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7260101323154942</v>
+        <v>0.2929772486357365</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.08327174681347</v>
+        <v>7.886081661724347</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.149464286483266</v>
+        <v>1.363718600459265</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3801910534457704</v>
+        <v>0.173400646048222</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03709498058773164</v>
+        <v>0.1870967854356991</v>
       </c>
       <c r="E18">
-        <v>0.2868155028661405</v>
+        <v>0.1865550924321937</v>
       </c>
       <c r="F18">
-        <v>0.2641980185059083</v>
+        <v>0.6029680112172784</v>
       </c>
       <c r="G18">
-        <v>0.3731530479392404</v>
+        <v>0.2847329751101739</v>
       </c>
       <c r="H18">
-        <v>0.1743488602348435</v>
+        <v>0.4369627566199341</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7033949397614236</v>
+        <v>0.2891410738347275</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.43192986368825</v>
+        <v>7.700893020178853</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.111363561413356</v>
+        <v>1.367236977618887</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3768592041681273</v>
+        <v>0.1724830366925687</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03692512035846107</v>
+        <v>0.1874708677183037</v>
       </c>
       <c r="E19">
-        <v>0.2837182347558098</v>
+        <v>0.1862626107626042</v>
       </c>
       <c r="F19">
-        <v>0.2608064676478321</v>
+        <v>0.6042479524250552</v>
       </c>
       <c r="G19">
-        <v>0.3684802832467824</v>
+        <v>0.2848071502373699</v>
       </c>
       <c r="H19">
-        <v>0.1730650567014607</v>
+        <v>0.4374881538624038</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6958285870813228</v>
+        <v>0.2878471055782938</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.21241142116014</v>
+        <v>7.638159621232376</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.098719175141326</v>
+        <v>1.368464436277378</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3918878876706913</v>
+        <v>0.1766169752704059</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03777313490407153</v>
+        <v>0.1858019186496875</v>
       </c>
       <c r="E20">
-        <v>0.2978526487104176</v>
+        <v>0.1875946974460092</v>
       </c>
       <c r="F20">
-        <v>0.2765247127594108</v>
+        <v>0.5985559266830265</v>
       </c>
       <c r="G20">
-        <v>0.3898343337688743</v>
+        <v>0.2845118381692089</v>
       </c>
       <c r="H20">
-        <v>0.1789995647806109</v>
+        <v>0.4351539596772227</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7302401735340709</v>
+        <v>0.2936895720170298</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.20431932448702</v>
+        <v>7.920340875635816</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.156640436879002</v>
+        <v>1.363084660377751</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4430578120240369</v>
+        <v>0.1905863723777088</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04225496613083379</v>
+        <v>0.1804490356834805</v>
       </c>
       <c r="E21">
-        <v>0.3492311237488863</v>
+        <v>0.1923513669066068</v>
       </c>
       <c r="F21">
-        <v>0.3381669100267715</v>
+        <v>0.5806295405355471</v>
       </c>
       <c r="G21">
-        <v>0.467911695923803</v>
+        <v>0.284200842643159</v>
       </c>
       <c r="H21">
-        <v>0.2019629309805993</v>
+        <v>0.4278422169529676</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8530599801868988</v>
+        <v>0.3136652770592434</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>27.61849317596699</v>
+        <v>8.866237085205</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.370994332995821</v>
+        <v>1.347551108144756</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4770883546583917</v>
+        <v>0.1997751957783578</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04663646434785562</v>
+        <v>0.1771421323318592</v>
       </c>
       <c r="E22">
-        <v>0.3863376446161695</v>
+        <v>0.1956733521465139</v>
       </c>
       <c r="F22">
-        <v>0.3862022155163274</v>
+        <v>0.5698194416559303</v>
       </c>
       <c r="G22">
-        <v>0.5245086845359452</v>
+        <v>0.2845147090363014</v>
       </c>
       <c r="H22">
-        <v>0.2195958073211131</v>
+        <v>0.4234630553584253</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9398982290175155</v>
+        <v>0.326984776037051</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>29.9252605613562</v>
+        <v>9.482817128851991</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.528385553074799</v>
+        <v>1.339321472460881</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.45886590061275</v>
+        <v>0.1948655829996682</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04414804399867478</v>
+        <v>0.1788894488175572</v>
       </c>
       <c r="E23">
-        <v>0.3661649145252923</v>
+        <v>0.1938805885477279</v>
       </c>
       <c r="F23">
-        <v>0.3597726740796503</v>
+        <v>0.5755052791164772</v>
       </c>
       <c r="G23">
-        <v>0.4937317701876083</v>
+        <v>0.2842992702970122</v>
       </c>
       <c r="H23">
-        <v>0.2099182559371258</v>
+        <v>0.4257634955027356</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8928632383140211</v>
+        <v>0.3198513048360212</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>28.68614161327673</v>
+        <v>9.153883446081863</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.442616560325121</v>
+        <v>1.343536074859117</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3910602398831173</v>
+        <v>0.1763896569628827</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03772095424169208</v>
+        <v>0.1858926162091237</v>
       </c>
       <c r="E24">
-        <v>0.2970632422394672</v>
+        <v>0.1875204976867337</v>
       </c>
       <c r="F24">
-        <v>0.2756309870361946</v>
+        <v>0.5988640312728108</v>
       </c>
       <c r="G24">
-        <v>0.3886398063851431</v>
+        <v>0.2845255164344564</v>
       </c>
       <c r="H24">
-        <v>0.1786631441907502</v>
+        <v>0.4352801552565069</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7283260677356367</v>
+        <v>0.2933674467256111</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.1495751188383</v>
+        <v>7.904853119674385</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.153391313862869</v>
+        <v>1.363370601002515</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3199281743422517</v>
+        <v>0.1567173484472164</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0356142150615355</v>
+        <v>0.1942574310576006</v>
       </c>
       <c r="E25">
-        <v>0.2339037766363532</v>
+        <v>0.1815515617692753</v>
       </c>
       <c r="F25">
-        <v>0.211089312237057</v>
+        <v>0.62786579544386</v>
       </c>
       <c r="G25">
-        <v>0.2940415450190699</v>
+        <v>0.2869288908642034</v>
       </c>
       <c r="H25">
-        <v>0.1539730463229319</v>
+        <v>0.4472356450834525</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5718544591657064</v>
+        <v>0.2658934879451493</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.49178225832691</v>
+        <v>6.55052388243513</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9000568345719273</v>
+        <v>1.392837692152881</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424542995417397</v>
+        <v>0.268796440665497</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2011023862291026</v>
+        <v>0.03702884567132259</v>
       </c>
       <c r="E2">
-        <v>0.1778968200581872</v>
+        <v>0.1940063172581716</v>
       </c>
       <c r="F2">
-        <v>0.6524037515926082</v>
+        <v>0.1799669106757165</v>
       </c>
       <c r="G2">
-        <v>0.2904879055989156</v>
+        <v>0.2359923754243667</v>
       </c>
       <c r="H2">
-        <v>0.4574657667400999</v>
+        <v>0.1415773898039276</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.246557002603268</v>
+        <v>0.4686339160193569</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.546992588574966</v>
+        <v>16.18909708278446</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.421277761602738</v>
+        <v>0.7502084372793263</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329270314379301</v>
+        <v>0.2347212707962569</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2061636599317538</v>
+        <v>0.0393972245964207</v>
       </c>
       <c r="E3">
-        <v>0.1758693561622593</v>
+        <v>0.1699068878758325</v>
       </c>
       <c r="F3">
-        <v>0.670974825369882</v>
+        <v>0.166714534762427</v>
       </c>
       <c r="G3">
-        <v>0.2939821842161052</v>
+        <v>0.2021141956481785</v>
       </c>
       <c r="H3">
-        <v>0.4652759133666251</v>
+        <v>0.1360086135428844</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2339875107096816</v>
+        <v>0.4038972520834818</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.862844394437758</v>
+        <v>14.00137880614321</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.444658577017236</v>
+        <v>0.6661443597723178</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.127146225585733</v>
+        <v>0.2140280795156428</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2094778388629521</v>
+        <v>0.04143080990046144</v>
       </c>
       <c r="E4">
-        <v>0.1748423915855355</v>
+        <v>0.1562494670319907</v>
       </c>
       <c r="F4">
-        <v>0.6833202303861121</v>
+        <v>0.1617913243883962</v>
       </c>
       <c r="G4">
-        <v>0.2966503035784953</v>
+        <v>0.1835191828948695</v>
       </c>
       <c r="H4">
-        <v>0.4704995684757094</v>
+        <v>0.1337726036756948</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2265272836485082</v>
+        <v>0.3661283998539631</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.440771257589233</v>
+        <v>12.67549927020707</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.461006988380817</v>
+        <v>0.6216730562461095</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.124807969784456</v>
+        <v>0.205645741175374</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2108800569751637</v>
+        <v>0.04239033683632698</v>
       </c>
       <c r="E5">
-        <v>0.1744781841268974</v>
+        <v>0.1509310091323002</v>
       </c>
       <c r="F5">
-        <v>0.6885858796839024</v>
+        <v>0.160507387440223</v>
       </c>
       <c r="G5">
-        <v>0.2978673455329783</v>
+        <v>0.1764320911506019</v>
       </c>
       <c r="H5">
-        <v>0.4727352548825365</v>
+        <v>0.1331307524977703</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2235511146765958</v>
+        <v>0.3511595468796855</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.268272601079673</v>
+        <v>12.13860824012494</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.468165213375272</v>
+        <v>0.6051517700465041</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244207630766425</v>
+        <v>0.2042566979794884</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2111160066951925</v>
+        <v>0.04255716819000099</v>
       </c>
       <c r="E6">
-        <v>0.1744209723910046</v>
+        <v>0.1500617469247985</v>
       </c>
       <c r="F6">
-        <v>0.6894743519688653</v>
+        <v>0.1603354790514047</v>
       </c>
       <c r="G6">
-        <v>0.2980772232701838</v>
+        <v>0.1752831576854774</v>
       </c>
       <c r="H6">
-        <v>0.4731129321276484</v>
+        <v>0.1330396710448696</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2230607628350327</v>
+        <v>0.3486974639774445</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.239599228025355</v>
+        <v>12.04963861598117</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.469383651371857</v>
+        <v>0.6024997943044923</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271146201467275</v>
+        <v>0.2139148378434896</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2094965408381242</v>
+        <v>0.04144323897757118</v>
       </c>
       <c r="E7">
-        <v>0.1748372605898183</v>
+        <v>0.1561767886087679</v>
       </c>
       <c r="F7">
-        <v>0.6833902970605763</v>
+        <v>0.1617711909504145</v>
       </c>
       <c r="G7">
-        <v>0.296666193816371</v>
+        <v>0.183421697885656</v>
       </c>
       <c r="H7">
-        <v>0.4705292873484268</v>
+        <v>0.1337628920629825</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2264868881593571</v>
+        <v>0.3659249075132607</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.438446901319622</v>
+        <v>12.6682459125183</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.46110152444237</v>
+        <v>0.6214440050718366</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391550521503291</v>
+        <v>0.2569951444442466</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2028044821121142</v>
+        <v>0.03771562717439991</v>
       </c>
       <c r="E8">
-        <v>0.1771522103618892</v>
+        <v>0.1854347432064358</v>
       </c>
       <c r="F8">
-        <v>0.6586100511675106</v>
+        <v>0.1746757905063561</v>
       </c>
       <c r="G8">
-        <v>0.2915832677034444</v>
+        <v>0.223812370771995</v>
       </c>
       <c r="H8">
-        <v>0.4600694328751516</v>
+        <v>0.1393937719679386</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2421690871316429</v>
+        <v>0.4458529982659627</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.311515526824621</v>
+        <v>15.4305444893744</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.428922969451065</v>
+        <v>0.7196160669187179</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1633096474751596</v>
+        <v>0.3436669753434103</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1913324215752823</v>
+        <v>0.03579527829323581</v>
       </c>
       <c r="E9">
-        <v>0.18344552213523</v>
+        <v>0.2539706416939538</v>
       </c>
       <c r="F9">
-        <v>0.6175959377957909</v>
+        <v>0.2299222400039085</v>
       </c>
       <c r="G9">
-        <v>0.2858368229487382</v>
+        <v>0.323837866606965</v>
       </c>
       <c r="H9">
-        <v>0.4429849308802574</v>
+        <v>0.1612750280518043</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2750064583307505</v>
+        <v>0.6223511326081308</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7.007702239187438</v>
+        <v>21.03668534353767</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.381850811136218</v>
+        <v>0.9788849809209239</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1813842619805683</v>
+        <v>0.4092804101407665</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1839274416348857</v>
+        <v>0.03901815565139088</v>
       </c>
       <c r="E10">
-        <v>0.1891753285734481</v>
+        <v>0.3147427997682897</v>
       </c>
       <c r="F10">
-        <v>0.5922202471140565</v>
+        <v>0.2960643501209717</v>
       </c>
       <c r="G10">
-        <v>0.2842909973730059</v>
+        <v>0.4154376440968548</v>
       </c>
       <c r="H10">
-        <v>0.4325628556206453</v>
+        <v>0.186327295821485</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3004674241690708</v>
+        <v>0.7709864396471886</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.244409026353196</v>
+        <v>25.35809226250956</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.357342429715629</v>
+        <v>1.226519686683673</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1896777238767129</v>
+        <v>0.4397096705678791</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1807847701872802</v>
+        <v>0.04188525533498932</v>
       </c>
       <c r="E11">
-        <v>0.192030793056837</v>
+        <v>0.345710560656812</v>
       </c>
       <c r="F11">
-        <v>0.5817386181956579</v>
+        <v>0.3337471985061597</v>
       </c>
       <c r="G11">
-        <v>0.2841910502884701</v>
+        <v>0.4625468965546133</v>
       </c>
       <c r="H11">
-        <v>0.4282928039644815</v>
+        <v>0.2003302625000458</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.312355616623023</v>
+        <v>0.8447458728388</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.805039040506074</v>
+        <v>27.39319618454198</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.348446195448503</v>
+        <v>1.356154178546205</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1928284108438874</v>
+        <v>0.4513318579380154</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1796275370309814</v>
+        <v>0.04321532771391645</v>
       </c>
       <c r="E12">
-        <v>0.1931486157041036</v>
+        <v>0.3580297823088188</v>
       </c>
       <c r="F12">
-        <v>0.5779246582451663</v>
+        <v>0.3493231653209605</v>
       </c>
       <c r="G12">
-        <v>0.2842417744123509</v>
+        <v>0.4813248529663525</v>
       </c>
       <c r="H12">
-        <v>0.4267443049057391</v>
+        <v>0.2060759498078539</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3169026404015369</v>
+        <v>0.8737794211956782</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.017059504469444</v>
+        <v>28.17648794474104</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.345406766665548</v>
+        <v>1.408161027036954</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1921494050662602</v>
+        <v>0.4488241177475203</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1798753022518724</v>
+        <v>0.04291720941831301</v>
       </c>
       <c r="E13">
-        <v>0.1929062364919645</v>
+        <v>0.355348146527632</v>
       </c>
       <c r="F13">
-        <v>0.5787391198799412</v>
+        <v>0.3459066060115745</v>
       </c>
       <c r="G13">
-        <v>0.2842268816299764</v>
+        <v>0.4772360985822814</v>
       </c>
       <c r="H13">
-        <v>0.4270747444165295</v>
+        <v>0.2048175710076237</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3159213256708995</v>
+        <v>0.867473444049665</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.971409404023916</v>
+        <v>28.0071805042661</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.346046625712034</v>
+        <v>1.396822077027508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1899367303224579</v>
+        <v>0.4406637457646809</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1806889039820376</v>
+        <v>0.0419895010950242</v>
       </c>
       <c r="E14">
-        <v>0.1921220208250318</v>
+        <v>0.3467114428612064</v>
       </c>
       <c r="F14">
-        <v>0.5814217164591469</v>
+        <v>0.3350010749014203</v>
       </c>
       <c r="G14">
-        <v>0.2841934377896962</v>
+        <v>0.4640719473337214</v>
       </c>
       <c r="H14">
-        <v>0.4281640313448776</v>
+        <v>0.2007936435423403</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3127287893162816</v>
+        <v>0.8471109453592476</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.822487640287306</v>
+        <v>27.45736717273093</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.348189507238573</v>
+        <v>1.360371285942563</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1885827195819445</v>
+        <v>0.4356787227459193</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1811915441495344</v>
+        <v>0.04145452445970932</v>
       </c>
       <c r="E15">
-        <v>0.1916464440942534</v>
+        <v>0.3415022285341109</v>
       </c>
       <c r="F15">
-        <v>0.583085171284722</v>
+        <v>0.3284983588834649</v>
       </c>
       <c r="G15">
-        <v>0.2841845414872353</v>
+        <v>0.4561359541353625</v>
       </c>
       <c r="H15">
-        <v>0.4288401909844168</v>
+        <v>0.1983888321086056</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.310779196000226</v>
+        <v>0.8347892775278893</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.731232674352157</v>
+        <v>27.1223268653066</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.349545141284835</v>
+        <v>1.338439740221787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1808436885707749</v>
+        <v>0.4073047681438737</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1841373974435641</v>
+        <v>0.03886241891341058</v>
       </c>
       <c r="E16">
-        <v>0.1889937876521586</v>
+        <v>0.3127950421488208</v>
       </c>
       <c r="F16">
-        <v>0.5929268281725442</v>
+        <v>0.2937718405016483</v>
       </c>
       <c r="G16">
-        <v>0.2843098239111868</v>
+        <v>0.4124810895907558</v>
       </c>
       <c r="H16">
-        <v>0.4328514551066718</v>
+        <v>0.1854701523303817</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2996967621012487</v>
+        <v>0.7663073085444694</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.207731445582567</v>
+        <v>25.22670330782785</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.357969614898366</v>
+        <v>1.218428014759382</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1761142076767612</v>
+        <v>0.3900575496622594</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1860026822097538</v>
+        <v>0.03765859481470102</v>
       </c>
       <c r="E17">
-        <v>0.1874307331997755</v>
+        <v>0.2961086100890711</v>
       </c>
       <c r="F17">
-        <v>0.5992381217104636</v>
+        <v>0.2745526330399883</v>
       </c>
       <c r="G17">
-        <v>0.284542483680255</v>
+        <v>0.3871955404204073</v>
       </c>
       <c r="H17">
-        <v>0.4354334013119256</v>
+        <v>0.1782570695465324</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2929772486357365</v>
+        <v>0.7260101323156078</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.886081661724347</v>
+        <v>24.08327174681352</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.363718600459265</v>
+        <v>1.149464286483322</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.173400646048222</v>
+        <v>0.3801910534461257</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1870967854356991</v>
+        <v>0.03709498058771743</v>
       </c>
       <c r="E18">
-        <v>0.1865550924321937</v>
+        <v>0.2868155028661334</v>
       </c>
       <c r="F18">
-        <v>0.6029680112172784</v>
+        <v>0.2641980185059154</v>
       </c>
       <c r="G18">
-        <v>0.2847329751101739</v>
+        <v>0.3731530479392262</v>
       </c>
       <c r="H18">
-        <v>0.4369627566199341</v>
+        <v>0.1743488602348435</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2891410738347275</v>
+        <v>0.7033949397615658</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.700893020178853</v>
+        <v>23.43192986368803</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.367236977618887</v>
+        <v>1.111363561413327</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1724830366925687</v>
+        <v>0.3768592041676015</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1874708677183037</v>
+        <v>0.03692512035856055</v>
       </c>
       <c r="E19">
-        <v>0.1862626107626042</v>
+        <v>0.2837182347557956</v>
       </c>
       <c r="F19">
-        <v>0.6042479524250552</v>
+        <v>0.2608064676478534</v>
       </c>
       <c r="G19">
-        <v>0.2848071502373699</v>
+        <v>0.3684802832467255</v>
       </c>
       <c r="H19">
-        <v>0.4374881538624038</v>
+        <v>0.173065056701347</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2878471055782938</v>
+        <v>0.6958285870814223</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.638159621232376</v>
+        <v>23.21241142115991</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.368464436277378</v>
+        <v>1.098719175141241</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1766169752704059</v>
+        <v>0.391887887670066</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1858019186496875</v>
+        <v>0.03777313490413547</v>
       </c>
       <c r="E20">
-        <v>0.1875946974460092</v>
+        <v>0.2978526487104176</v>
       </c>
       <c r="F20">
-        <v>0.5985559266830265</v>
+        <v>0.276524712759425</v>
       </c>
       <c r="G20">
-        <v>0.2845118381692089</v>
+        <v>0.3898343337689738</v>
       </c>
       <c r="H20">
-        <v>0.4351539596772227</v>
+        <v>0.1789995647806109</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2936895720170298</v>
+        <v>0.7302401735340425</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.920340875635816</v>
+        <v>24.20431932448685</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.363084660377751</v>
+        <v>1.15664043687903</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1905863723777088</v>
+        <v>0.4430578120254438</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1804490356834805</v>
+        <v>0.04225496613089774</v>
       </c>
       <c r="E21">
-        <v>0.1923513669066068</v>
+        <v>0.3492311237488792</v>
       </c>
       <c r="F21">
-        <v>0.5806295405355471</v>
+        <v>0.3381669100267644</v>
       </c>
       <c r="G21">
-        <v>0.284200842643159</v>
+        <v>0.4679116959238314</v>
       </c>
       <c r="H21">
-        <v>0.4278422169529676</v>
+        <v>0.2019629309805993</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3136652770592434</v>
+        <v>0.8530599801869556</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.866237085205</v>
+        <v>27.6184931759671</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.347551108144756</v>
+        <v>1.370994332995878</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1997751957783578</v>
+        <v>0.4770883546594291</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1771421323318592</v>
+        <v>0.04663646434779167</v>
       </c>
       <c r="E22">
-        <v>0.1956733521465139</v>
+        <v>0.3863376446161553</v>
       </c>
       <c r="F22">
-        <v>0.5698194416559303</v>
+        <v>0.3862022155163274</v>
       </c>
       <c r="G22">
-        <v>0.2845147090363014</v>
+        <v>0.5245086845360305</v>
       </c>
       <c r="H22">
-        <v>0.4234630553584253</v>
+        <v>0.2195958073210988</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.326984776037051</v>
+        <v>0.9398982290174018</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.482817128851991</v>
+        <v>29.92526056135586</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.339321472460881</v>
+        <v>1.52838555307477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1948655829996682</v>
+        <v>0.4588659006126221</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1788894488175572</v>
+        <v>0.04414804399882399</v>
       </c>
       <c r="E23">
-        <v>0.1938805885477279</v>
+        <v>0.3661649145252852</v>
       </c>
       <c r="F23">
-        <v>0.5755052791164772</v>
+        <v>0.3597726740796645</v>
       </c>
       <c r="G23">
-        <v>0.2842992702970122</v>
+        <v>0.4937317701875656</v>
       </c>
       <c r="H23">
-        <v>0.4257634955027356</v>
+        <v>0.2099182559371258</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3198513048360212</v>
+        <v>0.8928632383139785</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.153883446081863</v>
+        <v>28.68614161327667</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.343536074859117</v>
+        <v>1.442616560325206</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1763896569628827</v>
+        <v>0.3910602398830889</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1858926162091237</v>
+        <v>0.0377209542414576</v>
       </c>
       <c r="E24">
-        <v>0.1875204976867337</v>
+        <v>0.2970632422394601</v>
       </c>
       <c r="F24">
-        <v>0.5988640312728108</v>
+        <v>0.275630987036223</v>
       </c>
       <c r="G24">
-        <v>0.2845255164344564</v>
+        <v>0.3886398063851431</v>
       </c>
       <c r="H24">
-        <v>0.4352801552565069</v>
+        <v>0.1786631441907502</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2933674467256111</v>
+        <v>0.7283260677356793</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.904853119674385</v>
+        <v>24.14957511883824</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.363370601002515</v>
+        <v>1.153391313862784</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1567173484472164</v>
+        <v>0.3199281743430902</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1942574310576006</v>
+        <v>0.0356142150615355</v>
       </c>
       <c r="E25">
-        <v>0.1815515617692753</v>
+        <v>0.2339037766363319</v>
       </c>
       <c r="F25">
-        <v>0.62786579544386</v>
+        <v>0.2110893122370427</v>
       </c>
       <c r="G25">
-        <v>0.2869288908642034</v>
+        <v>0.2940415450191267</v>
       </c>
       <c r="H25">
-        <v>0.4472356450834525</v>
+        <v>0.1539730463229319</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2658934879451493</v>
+        <v>0.5718544591657206</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6.55052388243513</v>
+        <v>19.49178225832691</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.392837692152881</v>
+        <v>0.9000568345719273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.268796440665497</v>
+        <v>0.8074239714509304</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03702884567132259</v>
+        <v>0.03759257695594442</v>
       </c>
       <c r="E2">
-        <v>0.1940063172581716</v>
+        <v>0.04825386030563594</v>
       </c>
       <c r="F2">
-        <v>0.1799669106757165</v>
+        <v>1.084295735210929</v>
       </c>
       <c r="G2">
-        <v>0.2359923754243667</v>
+        <v>0.8574202777711264</v>
       </c>
       <c r="H2">
-        <v>0.1415773898039276</v>
+        <v>0.009444167120751898</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01980120770190164</v>
       </c>
       <c r="J2">
-        <v>0.4686339160193569</v>
+        <v>0.6016546663616822</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5826644938500074</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08070002359604356</v>
       </c>
       <c r="M2">
-        <v>16.18909708278446</v>
+        <v>1.591571145782325</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3959333385128474</v>
       </c>
       <c r="O2">
-        <v>0.7502084372793263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.111347766768066</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2347212707962569</v>
+        <v>0.7100584591976826</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0393972245964207</v>
+        <v>0.03470984499533358</v>
       </c>
       <c r="E3">
-        <v>0.1699068878758325</v>
+        <v>0.0454082393705888</v>
       </c>
       <c r="F3">
-        <v>0.166714534762427</v>
+        <v>1.033845977101237</v>
       </c>
       <c r="G3">
-        <v>0.2021141956481785</v>
+        <v>0.8100608377155396</v>
       </c>
       <c r="H3">
-        <v>0.1360086135428844</v>
+        <v>0.01237251240783779</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02300429093956868</v>
       </c>
       <c r="J3">
-        <v>0.4038972520834818</v>
+        <v>0.5846969256318886</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5787830897875104</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07575477187179391</v>
       </c>
       <c r="M3">
-        <v>14.00137880614321</v>
+        <v>1.382956188716264</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3472663181987201</v>
       </c>
       <c r="O3">
-        <v>0.6661443597723178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.145766069669877</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2140280795156428</v>
+        <v>0.6498208752387882</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04143080990046144</v>
+        <v>0.03294170621670389</v>
       </c>
       <c r="E4">
-        <v>0.1562494670319907</v>
+        <v>0.04365159035859989</v>
       </c>
       <c r="F4">
-        <v>0.1617913243883962</v>
+        <v>1.003580765621834</v>
       </c>
       <c r="G4">
-        <v>0.1835191828948695</v>
+        <v>0.7817061426055432</v>
       </c>
       <c r="H4">
-        <v>0.1337726036756948</v>
+        <v>0.01444072288819448</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02520188334730733</v>
       </c>
       <c r="J4">
-        <v>0.3661283998539631</v>
+        <v>0.5747433162031683</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5764966736393973</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07270419107453829</v>
       </c>
       <c r="M4">
-        <v>12.67549927020707</v>
+        <v>1.255373751315801</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3176806813150677</v>
       </c>
       <c r="O4">
-        <v>0.6216730562461095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.167438082817322</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.205645741175374</v>
+        <v>0.6240459059261241</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04239033683632698</v>
+        <v>0.03221062314131373</v>
       </c>
       <c r="E5">
-        <v>0.1509310091323002</v>
+        <v>0.04291163231445871</v>
       </c>
       <c r="F5">
-        <v>0.160507387440223</v>
+        <v>0.9907102603857112</v>
       </c>
       <c r="G5">
-        <v>0.1764320911506019</v>
+        <v>0.7696769360910025</v>
       </c>
       <c r="H5">
-        <v>0.1331307524977703</v>
+        <v>0.01535425050568262</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02625232715379511</v>
       </c>
       <c r="J5">
-        <v>0.3511595468796855</v>
+        <v>0.5704665230079229</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.575014121047694</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07144770622075924</v>
       </c>
       <c r="M5">
-        <v>12.13860824012494</v>
+        <v>1.203906755802109</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3061658377577317</v>
       </c>
       <c r="O5">
-        <v>0.6051517700465041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.176070171010839</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2042566979794884</v>
+        <v>0.6183974407789492</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04255716819000099</v>
+        <v>0.03207647254681589</v>
       </c>
       <c r="E6">
-        <v>0.1500617469247985</v>
+        <v>0.0427634135389181</v>
       </c>
       <c r="F6">
-        <v>0.1603354790514047</v>
+        <v>0.9877194662337345</v>
       </c>
       <c r="G6">
-        <v>0.1752831576854774</v>
+        <v>0.7669007478451846</v>
       </c>
       <c r="H6">
-        <v>0.1330396710448696</v>
+        <v>0.01551628378195286</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02655764505595393</v>
       </c>
       <c r="J6">
-        <v>0.3486974639774445</v>
+        <v>0.5693583801505184</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5740682145892428</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07122945879713471</v>
       </c>
       <c r="M6">
-        <v>12.04963861598117</v>
+        <v>1.195876502905804</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.304837700142599</v>
       </c>
       <c r="O6">
-        <v>0.6024997943044923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.17710804488118</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2139148378434896</v>
+        <v>0.6457424574456638</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04144323897757118</v>
+        <v>0.03289706175363705</v>
       </c>
       <c r="E7">
-        <v>0.1561767886087679</v>
+        <v>0.04357315323284583</v>
       </c>
       <c r="F7">
-        <v>0.1617711909504145</v>
+        <v>1.001049217267038</v>
       </c>
       <c r="G7">
-        <v>0.183421697885656</v>
+        <v>0.779389783963012</v>
       </c>
       <c r="H7">
-        <v>0.1337628920629825</v>
+        <v>0.01446942271498594</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02554639898358158</v>
       </c>
       <c r="J7">
-        <v>0.3659249075132607</v>
+        <v>0.5735820102381268</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5745637856220753</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07266245365007062</v>
       </c>
       <c r="M7">
-        <v>12.6682459125183</v>
+        <v>1.256073575942622</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3191115227472778</v>
       </c>
       <c r="O7">
-        <v>0.6214440050718366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.1664691360308</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2569951444442466</v>
+        <v>0.7689645077495868</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03771562717439991</v>
+        <v>0.03655171404392021</v>
       </c>
       <c r="E8">
-        <v>0.1854347432064358</v>
+        <v>0.04718426646649476</v>
       </c>
       <c r="F8">
-        <v>0.1746757905063561</v>
+        <v>1.063634760777163</v>
       </c>
       <c r="G8">
-        <v>0.223812370771995</v>
+        <v>0.8380883758256772</v>
       </c>
       <c r="H8">
-        <v>0.1393937719679386</v>
+        <v>0.01041381724598942</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02125420690826463</v>
       </c>
       <c r="J8">
-        <v>0.4458529982659627</v>
+        <v>0.5942567087754753</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.578789736466355</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07896680741162854</v>
       </c>
       <c r="M8">
-        <v>15.4305444893744</v>
+        <v>1.521375229706479</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3812009341436209</v>
       </c>
       <c r="O8">
-        <v>0.7196160669187179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.121745256505406</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3436669753434103</v>
+        <v>1.013764582154977</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03579527829323581</v>
+        <v>0.04382624351433506</v>
       </c>
       <c r="E9">
-        <v>0.2539706416939538</v>
+        <v>0.05436523920748648</v>
       </c>
       <c r="F9">
-        <v>0.2299222400039085</v>
+        <v>1.196693157858363</v>
       </c>
       <c r="G9">
-        <v>0.323837866606965</v>
+        <v>0.9633495030866612</v>
       </c>
       <c r="H9">
-        <v>0.1612750280518043</v>
+        <v>0.004701910994650005</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01423890345348244</v>
       </c>
       <c r="J9">
-        <v>0.6223511326081308</v>
+        <v>0.6406488820624787</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5912866505679162</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09134859292405473</v>
       </c>
       <c r="M9">
-        <v>21.03668534353767</v>
+        <v>2.044140242106522</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5027358662443646</v>
       </c>
       <c r="O9">
-        <v>0.9788849809209239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.040264673757596</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4092804101407665</v>
+        <v>1.179790709837334</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03901815565139088</v>
+        <v>0.0484323443677539</v>
       </c>
       <c r="E10">
-        <v>0.3147427997682897</v>
+        <v>0.05910134575605008</v>
       </c>
       <c r="F10">
-        <v>0.2960643501209717</v>
+        <v>1.28260216077301</v>
       </c>
       <c r="G10">
-        <v>0.4154376440968548</v>
+        <v>1.046452572355562</v>
       </c>
       <c r="H10">
-        <v>0.186327295821485</v>
+        <v>0.00235434121098077</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01060569757551821</v>
       </c>
       <c r="J10">
-        <v>0.7709864396471886</v>
+        <v>0.6706644921679867</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5935624676129763</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1007319021159381</v>
       </c>
       <c r="M10">
-        <v>25.35809226250956</v>
+        <v>2.428125228806266</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5820851292402409</v>
       </c>
       <c r="O10">
-        <v>1.226519686683673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.9796419005871666</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4397096705678791</v>
+        <v>1.163641785759182</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04188525533498932</v>
+        <v>0.04403119089632312</v>
       </c>
       <c r="E11">
-        <v>0.345710560656812</v>
+        <v>0.05888306410548005</v>
       </c>
       <c r="F11">
-        <v>0.3337471985061597</v>
+        <v>1.189656542508445</v>
       </c>
       <c r="G11">
-        <v>0.4625468965546133</v>
+        <v>0.974569149730371</v>
       </c>
       <c r="H11">
-        <v>0.2003302625000458</v>
+        <v>0.0208068065851954</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0104437180891539</v>
       </c>
       <c r="J11">
-        <v>0.8447458728388</v>
+        <v>0.6294367322004462</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5376834416011249</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1126416898143816</v>
       </c>
       <c r="M11">
-        <v>27.39319618454198</v>
+        <v>2.559291781032726</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5134157967049902</v>
       </c>
       <c r="O11">
-        <v>1.356154178546205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9302029730351888</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4513318579380154</v>
+        <v>1.120725630707369</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04321532771391645</v>
+        <v>0.0399503080426129</v>
       </c>
       <c r="E12">
-        <v>0.3580297823088188</v>
+        <v>0.06124463369459932</v>
       </c>
       <c r="F12">
-        <v>0.3493231653209605</v>
+        <v>1.098485205740204</v>
       </c>
       <c r="G12">
-        <v>0.4813248529663525</v>
+        <v>0.9007984743589645</v>
       </c>
       <c r="H12">
-        <v>0.2060759498078539</v>
+        <v>0.05960702074145985</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01043736077696256</v>
       </c>
       <c r="J12">
-        <v>0.8737794211956782</v>
+        <v>0.5903555041268902</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4958464404742671</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1286094575994596</v>
       </c>
       <c r="M12">
-        <v>28.17648794474104</v>
+        <v>2.585144820701828</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.4405546379844623</v>
       </c>
       <c r="O12">
-        <v>1.408161027036954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9100733332920559</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4488241177475203</v>
+        <v>1.049166667648876</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04291720941831301</v>
+        <v>0.03582636381118931</v>
       </c>
       <c r="E13">
-        <v>0.355348146527632</v>
+        <v>0.06549520166233691</v>
       </c>
       <c r="F13">
-        <v>0.3459066060115745</v>
+        <v>0.9997657579142754</v>
       </c>
       <c r="G13">
-        <v>0.4772360985822814</v>
+        <v>0.8178737687469919</v>
       </c>
       <c r="H13">
-        <v>0.2048175710076237</v>
+        <v>0.1157156482447306</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01100040304203453</v>
       </c>
       <c r="J13">
-        <v>0.867473444049665</v>
+        <v>0.5488708770732842</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4593802932536235</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1482350141375477</v>
       </c>
       <c r="M13">
-        <v>28.0071805042661</v>
+        <v>2.533161243721906</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3632501439058444</v>
       </c>
       <c r="O13">
-        <v>1.396822077027508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9089106955075046</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4406637457646809</v>
+        <v>0.9855218990224159</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0419895010950242</v>
+        <v>0.03301338397129605</v>
       </c>
       <c r="E14">
-        <v>0.3467114428612064</v>
+        <v>0.06974493367153656</v>
       </c>
       <c r="F14">
-        <v>0.3350010749014203</v>
+        <v>0.9275405120390445</v>
       </c>
       <c r="G14">
-        <v>0.4640719473337214</v>
+        <v>0.7558431528852196</v>
       </c>
       <c r="H14">
-        <v>0.2007936435423403</v>
+        <v>0.1654262691532296</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01176720985793267</v>
       </c>
       <c r="J14">
-        <v>0.8471109453592476</v>
+        <v>0.5187767094341211</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.43641666378495</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1645583123146537</v>
       </c>
       <c r="M14">
-        <v>27.45736717273093</v>
+        <v>2.462152366741009</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3086661418107326</v>
       </c>
       <c r="O14">
-        <v>1.360371285942563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9173131138001551</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4356787227459193</v>
+        <v>0.9627244707052967</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04145452445970932</v>
+        <v>0.03224707238159752</v>
       </c>
       <c r="E15">
-        <v>0.3415022285341109</v>
+        <v>0.07075698141858489</v>
       </c>
       <c r="F15">
-        <v>0.3284983588834649</v>
+        <v>0.9074977033661611</v>
       </c>
       <c r="G15">
-        <v>0.4561359541353625</v>
+        <v>0.7380521870996972</v>
       </c>
       <c r="H15">
-        <v>0.1983888321086056</v>
+        <v>0.1781139640128657</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0122320225450121</v>
       </c>
       <c r="J15">
-        <v>0.8347892775278893</v>
+        <v>0.510578686300633</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.431149237510251</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1683818356089404</v>
       </c>
       <c r="M15">
-        <v>27.1223268653066</v>
+        <v>2.429082347427197</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2944368137491864</v>
       </c>
       <c r="O15">
-        <v>1.338439740221787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9223808976381456</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4073047681438737</v>
+        <v>0.9057432891768542</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03886241891341058</v>
+        <v>0.03116608656898912</v>
       </c>
       <c r="E16">
-        <v>0.3127950421488208</v>
+        <v>0.0676352730444254</v>
       </c>
       <c r="F16">
-        <v>0.2937718405016483</v>
+        <v>0.8902796643830868</v>
       </c>
       <c r="G16">
-        <v>0.4124810895907558</v>
+        <v>0.7185199085689078</v>
       </c>
       <c r="H16">
-        <v>0.1854701523303817</v>
+        <v>0.1663589659716536</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01384433137976604</v>
       </c>
       <c r="J16">
-        <v>0.7663073085444694</v>
+        <v>0.5055753613099654</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4367374588768733</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1596678358563608</v>
       </c>
       <c r="M16">
-        <v>25.22670330782785</v>
+        <v>2.275265239143579</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.278945274260451</v>
       </c>
       <c r="O16">
-        <v>1.218428014759382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.945718019447483</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3900575496622594</v>
+        <v>0.8953538172400499</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03765859481470102</v>
+        <v>0.03176472988501367</v>
       </c>
       <c r="E17">
-        <v>0.2961086100890711</v>
+        <v>0.06271235626443605</v>
       </c>
       <c r="F17">
-        <v>0.2745526330399883</v>
+        <v>0.915055312772374</v>
       </c>
       <c r="G17">
-        <v>0.3871955404204073</v>
+        <v>0.7362488723893819</v>
       </c>
       <c r="H17">
-        <v>0.1782570695465324</v>
+        <v>0.1291675522975453</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01470749878009947</v>
       </c>
       <c r="J17">
-        <v>0.7260101323156078</v>
+        <v>0.5176584894736607</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4528701950944871</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1437541529222415</v>
       </c>
       <c r="M17">
-        <v>24.08327174681352</v>
+        <v>2.195383093544052</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2953895175143799</v>
       </c>
       <c r="O17">
-        <v>1.149464286483322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9590146745299286</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3801910534461257</v>
+        <v>0.9270044953046295</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03709498058771743</v>
+        <v>0.03417898339713332</v>
       </c>
       <c r="E18">
-        <v>0.2868155028661334</v>
+        <v>0.05725673294892974</v>
       </c>
       <c r="F18">
-        <v>0.2641980185059154</v>
+        <v>0.9816789335351359</v>
       </c>
       <c r="G18">
-        <v>0.3731530479392262</v>
+        <v>0.7904011329325158</v>
       </c>
       <c r="H18">
-        <v>0.1743488602348435</v>
+        <v>0.07647275324320191</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01459432767518098</v>
       </c>
       <c r="J18">
-        <v>0.7033949397615658</v>
+        <v>0.5469166846483517</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4826293157603949</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1232576020343501</v>
       </c>
       <c r="M18">
-        <v>23.43192986368803</v>
+        <v>2.16794915727067</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.3426510760820776</v>
       </c>
       <c r="O18">
-        <v>1.111363561413327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9688087778525176</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3768592041676015</v>
+        <v>0.984199794583958</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03692512035856055</v>
+        <v>0.03829415837702754</v>
       </c>
       <c r="E19">
-        <v>0.2837182347557956</v>
+        <v>0.05429247078970212</v>
       </c>
       <c r="F19">
-        <v>0.2608064676478534</v>
+        <v>1.075982805367232</v>
       </c>
       <c r="G19">
-        <v>0.3684802832467255</v>
+        <v>0.8683763746430913</v>
       </c>
       <c r="H19">
-        <v>0.173065056701347</v>
+        <v>0.03080400931442284</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01429600409432119</v>
       </c>
       <c r="J19">
-        <v>0.6958285870814223</v>
+        <v>0.5869092064154415</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5210975813006833</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1064719374860879</v>
       </c>
       <c r="M19">
-        <v>23.21241142115991</v>
+        <v>2.18689637819088</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4179986417749575</v>
       </c>
       <c r="O19">
-        <v>1.098719175141241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9799753386572723</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.391887887670066</v>
+        <v>1.124055722248528</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03777313490413547</v>
+        <v>0.04707467676648491</v>
       </c>
       <c r="E20">
-        <v>0.2978526487104176</v>
+        <v>0.05762878961264351</v>
       </c>
       <c r="F20">
-        <v>0.276524712759425</v>
+        <v>1.251826829925363</v>
       </c>
       <c r="G20">
-        <v>0.3898343337689738</v>
+        <v>1.017113596298557</v>
       </c>
       <c r="H20">
-        <v>0.1789995647806109</v>
+        <v>0.002872538574104411</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01242731133286501</v>
       </c>
       <c r="J20">
-        <v>0.7302401735340425</v>
+        <v>0.6589472241631</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5868705418033926</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09823002066685582</v>
       </c>
       <c r="M20">
-        <v>24.20431932448685</v>
+        <v>2.331123997243537</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5656151108683503</v>
       </c>
       <c r="O20">
-        <v>1.15664043687903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.9924846874295028</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4430578120254438</v>
+        <v>1.268384282199946</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04225496613089774</v>
+        <v>0.05189939471073757</v>
       </c>
       <c r="E21">
-        <v>0.3492311237488792</v>
+        <v>0.06223408989026735</v>
       </c>
       <c r="F21">
-        <v>0.3381669100267644</v>
+        <v>1.344338708972529</v>
       </c>
       <c r="G21">
-        <v>0.4679116959238314</v>
+        <v>1.103448612258589</v>
       </c>
       <c r="H21">
-        <v>0.2019629309805993</v>
+        <v>0.001165127677301037</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.009702189803028283</v>
       </c>
       <c r="J21">
-        <v>0.8530599801869556</v>
+        <v>0.6933961488833091</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6001918923189251</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1052448022267818</v>
       </c>
       <c r="M21">
-        <v>27.6184931759671</v>
+        <v>2.634913583666986</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6459887748481066</v>
       </c>
       <c r="O21">
-        <v>1.370994332995878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.9526427955699166</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4770883546594291</v>
+        <v>1.362365796269671</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04663646434779167</v>
+        <v>0.05472371729024417</v>
       </c>
       <c r="E22">
-        <v>0.3863376446161553</v>
+        <v>0.06508049991636788</v>
       </c>
       <c r="F22">
-        <v>0.3862022155163274</v>
+        <v>1.401185026877542</v>
       </c>
       <c r="G22">
-        <v>0.5245086845360305</v>
+        <v>1.157400844251455</v>
       </c>
       <c r="H22">
-        <v>0.2195958073210988</v>
+        <v>0.0005244813107914137</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.007867914602764259</v>
       </c>
       <c r="J22">
-        <v>0.9398982290174018</v>
+        <v>0.7147463655736317</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6081151729200229</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1100146044333936</v>
       </c>
       <c r="M22">
-        <v>29.92526056135586</v>
+        <v>2.830258728952003</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6903954815215343</v>
       </c>
       <c r="O22">
-        <v>1.52838555307477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.9266541581232399</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4588659006126221</v>
+        <v>1.31676783201118</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04414804399882399</v>
+        <v>0.05325454652207284</v>
       </c>
       <c r="E23">
-        <v>0.3661649145252852</v>
+        <v>0.06363398952626298</v>
       </c>
       <c r="F23">
-        <v>0.3597726740796645</v>
+        <v>1.373496214041623</v>
       </c>
       <c r="G23">
-        <v>0.4937317701875656</v>
+        <v>1.131014555442746</v>
       </c>
       <c r="H23">
-        <v>0.2099182559371258</v>
+        <v>0.0008301929496028482</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.00846653873708636</v>
       </c>
       <c r="J23">
-        <v>0.8928632383139785</v>
+        <v>0.7045667430608518</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6060627563209948</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1074782935979863</v>
       </c>
       <c r="M23">
-        <v>28.68614161327667</v>
+        <v>2.724206373372596</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6647200941040126</v>
       </c>
       <c r="O23">
-        <v>1.442616560325206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.9414656280321427</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3910602398830889</v>
+        <v>1.136323842338612</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0377209542414576</v>
+        <v>0.04768790656514454</v>
       </c>
       <c r="E24">
-        <v>0.2970632422394601</v>
+        <v>0.05811826635680051</v>
       </c>
       <c r="F24">
-        <v>0.275630987036223</v>
+        <v>1.266517552451916</v>
       </c>
       <c r="G24">
-        <v>0.3886398063851431</v>
+        <v>1.029500134037036</v>
       </c>
       <c r="H24">
-        <v>0.1786631441907502</v>
+        <v>0.002677662656162205</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01181075880843441</v>
       </c>
       <c r="J24">
-        <v>0.7283260677356793</v>
+        <v>0.6653153867193282</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5951759704319812</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09798843992172124</v>
       </c>
       <c r="M24">
-        <v>24.14957511883824</v>
+        <v>2.327820185132964</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5714977378903399</v>
       </c>
       <c r="O24">
-        <v>1.153391313862784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.9972650454136804</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3199281743430902</v>
+        <v>0.9410529437253103</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0356142150615355</v>
+        <v>0.04178571546712462</v>
       </c>
       <c r="E25">
-        <v>0.2339037766363319</v>
+        <v>0.05229676416008111</v>
       </c>
       <c r="F25">
-        <v>0.2110893122370427</v>
+        <v>1.155732532297407</v>
       </c>
       <c r="G25">
-        <v>0.2940415450191267</v>
+        <v>0.9248282961291494</v>
       </c>
       <c r="H25">
-        <v>0.1539730463229319</v>
+        <v>0.006004142454520689</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01646321156521235</v>
       </c>
       <c r="J25">
-        <v>0.5718544591657206</v>
+        <v>0.6256735006835186</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.584410822932071</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08795414111780264</v>
       </c>
       <c r="M25">
-        <v>19.49178225832691</v>
+        <v>1.904575267848486</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4724478024142797</v>
       </c>
       <c r="O25">
-        <v>0.9000568345719273</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.060103229632794</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8074239714509304</v>
+        <v>0.7113085777385777</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03759257695594442</v>
+        <v>0.03528811388361675</v>
       </c>
       <c r="E2">
-        <v>0.04825386030563594</v>
+        <v>0.04248623821939135</v>
       </c>
       <c r="F2">
-        <v>1.084295735210929</v>
+        <v>1.017629584665769</v>
       </c>
       <c r="G2">
-        <v>0.8574202777711264</v>
+        <v>0.7848358946347673</v>
       </c>
       <c r="H2">
-        <v>0.009444167120751898</v>
+        <v>0.007394627866572301</v>
       </c>
       <c r="I2">
-        <v>0.01980120770190164</v>
+        <v>0.01390534194378734</v>
       </c>
       <c r="J2">
-        <v>0.6016546663616822</v>
+        <v>0.5952715602698788</v>
       </c>
       <c r="K2">
-        <v>0.5826644938500074</v>
+        <v>0.4983359003719521</v>
       </c>
       <c r="L2">
-        <v>0.08070002359604356</v>
+        <v>0.2067802756087254</v>
       </c>
       <c r="M2">
-        <v>1.591571145782325</v>
+        <v>0.1680271345406208</v>
       </c>
       <c r="N2">
-        <v>0.3959333385128474</v>
+        <v>0.0721577599916019</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.623255277806294</v>
       </c>
       <c r="P2">
-        <v>1.111347766768066</v>
+        <v>0.439466855405513</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.040248520944724</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7100584591976826</v>
+        <v>0.6279538000509319</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03470984499533358</v>
+        <v>0.03269283317118976</v>
       </c>
       <c r="E3">
-        <v>0.0454082393705888</v>
+        <v>0.04003556620735793</v>
       </c>
       <c r="F3">
-        <v>1.033845977101237</v>
+        <v>0.9741125370441495</v>
       </c>
       <c r="G3">
-        <v>0.8100608377155396</v>
+        <v>0.7464842324863525</v>
       </c>
       <c r="H3">
-        <v>0.01237251240783779</v>
+        <v>0.00982450682283758</v>
       </c>
       <c r="I3">
-        <v>0.02300429093956868</v>
+        <v>0.01619534398683253</v>
       </c>
       <c r="J3">
-        <v>0.5846969256318886</v>
+        <v>0.5764651935787413</v>
       </c>
       <c r="K3">
-        <v>0.5787830897875104</v>
+        <v>0.4987199163991747</v>
       </c>
       <c r="L3">
-        <v>0.07575477187179391</v>
+        <v>0.2108173695536024</v>
       </c>
       <c r="M3">
-        <v>1.382956188716264</v>
+        <v>0.166058458163258</v>
       </c>
       <c r="N3">
-        <v>0.3472663181987201</v>
+        <v>0.0673782189459402</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.409120316619664</v>
       </c>
       <c r="P3">
-        <v>1.145766069669877</v>
+        <v>0.3847293356700163</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.073623262293055</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6498208752387882</v>
+        <v>0.576116701910081</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03294170621670389</v>
+        <v>0.03109946186806312</v>
       </c>
       <c r="E4">
-        <v>0.04365159035859989</v>
+        <v>0.03852472634266202</v>
       </c>
       <c r="F4">
-        <v>1.003580765621834</v>
+        <v>0.9479367995522736</v>
       </c>
       <c r="G4">
-        <v>0.7817061426055432</v>
+        <v>0.7237120122780141</v>
       </c>
       <c r="H4">
-        <v>0.01444072288819448</v>
+        <v>0.01155019635156258</v>
       </c>
       <c r="I4">
-        <v>0.02520188334730733</v>
+        <v>0.01778524985470176</v>
       </c>
       <c r="J4">
-        <v>0.5747433162031683</v>
+        <v>0.565048619503699</v>
       </c>
       <c r="K4">
-        <v>0.5764966736393973</v>
+        <v>0.4989687331984065</v>
       </c>
       <c r="L4">
-        <v>0.07270419107453829</v>
+        <v>0.2133085840106332</v>
       </c>
       <c r="M4">
-        <v>1.255373751315801</v>
+        <v>0.1653556370225555</v>
       </c>
       <c r="N4">
-        <v>0.3176806813150677</v>
+        <v>0.06444650512318795</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.278134785387522</v>
       </c>
       <c r="P4">
-        <v>1.167438082817322</v>
+        <v>0.3515270817026561</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.094679841927612</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6240459059261241</v>
+        <v>0.553814086605172</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03221062314131373</v>
+        <v>0.03044013639573606</v>
       </c>
       <c r="E5">
-        <v>0.04291163231445871</v>
+        <v>0.03789094613956845</v>
       </c>
       <c r="F5">
-        <v>0.9907102603857112</v>
+        <v>0.9367436195410548</v>
       </c>
       <c r="G5">
-        <v>0.7696769360910025</v>
+        <v>0.7140228661788512</v>
       </c>
       <c r="H5">
-        <v>0.01535425050568262</v>
+        <v>0.01231441816795792</v>
       </c>
       <c r="I5">
-        <v>0.02625232715379511</v>
+        <v>0.01858576250803079</v>
       </c>
       <c r="J5">
-        <v>0.5704665230079229</v>
+        <v>0.5601109207580208</v>
       </c>
       <c r="K5">
-        <v>0.575014121047694</v>
+        <v>0.4985771091705899</v>
       </c>
       <c r="L5">
-        <v>0.07144770622075924</v>
+        <v>0.2140861131323639</v>
       </c>
       <c r="M5">
-        <v>1.203906755802109</v>
+        <v>0.1650658090642008</v>
       </c>
       <c r="N5">
-        <v>0.3061658377577317</v>
+        <v>0.06325393026056592</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.225265102041675</v>
       </c>
       <c r="P5">
-        <v>1.176070171010839</v>
+        <v>0.3385619374973601</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.10314801174008</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6183974407789492</v>
+        <v>0.5488608432669082</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03207647254681589</v>
+        <v>0.03031895541578677</v>
       </c>
       <c r="E6">
-        <v>0.0427634135389181</v>
+        <v>0.03776667553613744</v>
       </c>
       <c r="F6">
-        <v>0.9877194662337345</v>
+        <v>0.9340920377150326</v>
       </c>
       <c r="G6">
-        <v>0.7669007478451846</v>
+        <v>0.7117011927664976</v>
       </c>
       <c r="H6">
-        <v>0.01551628378195286</v>
+        <v>0.01245004439440993</v>
       </c>
       <c r="I6">
-        <v>0.02655764505595393</v>
+        <v>0.01886165730773737</v>
       </c>
       <c r="J6">
-        <v>0.5693583801505184</v>
+        <v>0.5589065915645364</v>
       </c>
       <c r="K6">
-        <v>0.5740682145892428</v>
+        <v>0.4979074339615295</v>
       </c>
       <c r="L6">
-        <v>0.07122945879713471</v>
+        <v>0.2139224292937776</v>
       </c>
       <c r="M6">
-        <v>1.195876502905804</v>
+        <v>0.1648653012928118</v>
       </c>
       <c r="N6">
-        <v>0.304837700142599</v>
+        <v>0.06306022705940784</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.216983902705607</v>
       </c>
       <c r="P6">
-        <v>1.17710804488118</v>
+        <v>0.336989611980357</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.104257925537054</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6457424574456638</v>
+        <v>0.5725065750430076</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03289706175363705</v>
+        <v>0.03118985177728462</v>
       </c>
       <c r="E7">
-        <v>0.04357315323284583</v>
+        <v>0.03847633694249497</v>
       </c>
       <c r="F7">
-        <v>1.001049217267038</v>
+        <v>0.9439628498736354</v>
       </c>
       <c r="G7">
-        <v>0.779389783963012</v>
+        <v>0.7249190268924366</v>
       </c>
       <c r="H7">
-        <v>0.01446942271498594</v>
+        <v>0.01158403033223559</v>
       </c>
       <c r="I7">
-        <v>0.02554639898358158</v>
+        <v>0.01816821422028525</v>
       </c>
       <c r="J7">
-        <v>0.5735820102381268</v>
+        <v>0.5575149291488799</v>
       </c>
       <c r="K7">
-        <v>0.5745637856220753</v>
+        <v>0.4968562606987916</v>
       </c>
       <c r="L7">
-        <v>0.07266245365007062</v>
+        <v>0.2123225185035515</v>
       </c>
       <c r="M7">
-        <v>1.256073575942622</v>
+        <v>0.1647691514246539</v>
       </c>
       <c r="N7">
-        <v>0.3191115227472778</v>
+        <v>0.06441105690304472</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.27636693787565</v>
       </c>
       <c r="P7">
-        <v>1.1664691360308</v>
+        <v>0.3523953172333023</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.093666175208042</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7689645077495868</v>
+        <v>0.6784722661050466</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03655171404392021</v>
+        <v>0.03479116758953538</v>
       </c>
       <c r="E8">
-        <v>0.04718426646649476</v>
+        <v>0.04161309051201756</v>
       </c>
       <c r="F8">
-        <v>1.063634760777163</v>
+        <v>0.9942023064878995</v>
       </c>
       <c r="G8">
-        <v>0.8380883758256772</v>
+        <v>0.7799436178113979</v>
       </c>
       <c r="H8">
-        <v>0.01041381724598942</v>
+        <v>0.008223075824703802</v>
       </c>
       <c r="I8">
-        <v>0.02125420690826463</v>
+        <v>0.0151211815061707</v>
       </c>
       <c r="J8">
-        <v>0.5942567087754753</v>
+        <v>0.5662958565666401</v>
       </c>
       <c r="K8">
-        <v>0.578789736466355</v>
+        <v>0.4948278647819002</v>
       </c>
       <c r="L8">
-        <v>0.07896680741162854</v>
+        <v>0.2065805172506998</v>
       </c>
       <c r="M8">
-        <v>1.521375229706479</v>
+        <v>0.166106332483535</v>
       </c>
       <c r="N8">
-        <v>0.3812009341436209</v>
+        <v>0.07042229609373507</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.543033028768207</v>
       </c>
       <c r="P8">
-        <v>1.121745256505406</v>
+        <v>0.4208217255730204</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.049744859413421</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.013764582154977</v>
+        <v>0.8868335333602886</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04382624351433506</v>
+        <v>0.04145638716535771</v>
       </c>
       <c r="E9">
-        <v>0.05436523920748648</v>
+        <v>0.0478095001137202</v>
       </c>
       <c r="F9">
-        <v>1.196693157858363</v>
+        <v>1.107270165978974</v>
       </c>
       <c r="G9">
-        <v>0.9633495030866612</v>
+        <v>0.8860213359388922</v>
       </c>
       <c r="H9">
-        <v>0.004701910994650005</v>
+        <v>0.00353437004973034</v>
       </c>
       <c r="I9">
-        <v>0.01423890345348244</v>
+        <v>0.01006876322311978</v>
       </c>
       <c r="J9">
-        <v>0.6406488820624787</v>
+        <v>0.6093934755289467</v>
       </c>
       <c r="K9">
-        <v>0.5912866505679162</v>
+        <v>0.4955345400360827</v>
       </c>
       <c r="L9">
-        <v>0.09134859292405473</v>
+        <v>0.197450166085126</v>
       </c>
       <c r="M9">
-        <v>2.044140242106522</v>
+        <v>0.1741321468201527</v>
       </c>
       <c r="N9">
-        <v>0.5027358662443646</v>
+        <v>0.08240414288265185</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.077039151355422</v>
       </c>
       <c r="P9">
-        <v>1.040264673757596</v>
+        <v>0.5576059501431558</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.9706500705857923</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.179790709837334</v>
+        <v>1.028072013611478</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0484323443677539</v>
+        <v>0.04641776852248469</v>
       </c>
       <c r="E10">
-        <v>0.05910134575605008</v>
+        <v>0.0521101812539575</v>
       </c>
       <c r="F10">
-        <v>1.28260216077301</v>
+        <v>1.16992244123152</v>
       </c>
       <c r="G10">
-        <v>1.046452572355562</v>
+        <v>0.9769557458734397</v>
       </c>
       <c r="H10">
-        <v>0.00235434121098077</v>
+        <v>0.001722697606186596</v>
       </c>
       <c r="I10">
-        <v>0.01060569757551821</v>
+        <v>0.00763330118696981</v>
       </c>
       <c r="J10">
-        <v>0.6706644921679867</v>
+        <v>0.600249429680531</v>
       </c>
       <c r="K10">
-        <v>0.5935624676129763</v>
+        <v>0.488120916150244</v>
       </c>
       <c r="L10">
-        <v>0.1007319021159381</v>
+        <v>0.1879642510622261</v>
       </c>
       <c r="M10">
-        <v>2.428125228806266</v>
+        <v>0.1792867840633541</v>
       </c>
       <c r="N10">
-        <v>0.5820851292402409</v>
+        <v>0.09186347456392063</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.453619322113013</v>
       </c>
       <c r="P10">
-        <v>0.9796419005871666</v>
+        <v>0.6439832532863363</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.9127306174324266</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.163641785759182</v>
+        <v>1.022393563934656</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04403119089632312</v>
+        <v>0.04347804961182433</v>
       </c>
       <c r="E11">
-        <v>0.05888306410548005</v>
+        <v>0.0531500377412133</v>
       </c>
       <c r="F11">
-        <v>1.189656542508445</v>
+        <v>1.067034425924675</v>
       </c>
       <c r="G11">
-        <v>0.974569149730371</v>
+        <v>0.9544684216798913</v>
       </c>
       <c r="H11">
-        <v>0.0208068065851954</v>
+        <v>0.02025192558757283</v>
       </c>
       <c r="I11">
-        <v>0.0104437180891539</v>
+        <v>0.007853504720719329</v>
       </c>
       <c r="J11">
-        <v>0.6294367322004462</v>
+        <v>0.4971353429413909</v>
       </c>
       <c r="K11">
-        <v>0.5376834416011249</v>
+        <v>0.4393951350811456</v>
       </c>
       <c r="L11">
-        <v>0.1126416898143816</v>
+        <v>0.1682887878348964</v>
       </c>
       <c r="M11">
-        <v>2.559291781032726</v>
+        <v>0.1634307793295804</v>
       </c>
       <c r="N11">
-        <v>0.5134157967049902</v>
+        <v>0.106943194029121</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.549468035433819</v>
       </c>
       <c r="P11">
-        <v>0.9302029730351888</v>
+        <v>0.5611347996803033</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8795809085659467</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.120725630707369</v>
+        <v>0.9926138268700129</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0399503080426129</v>
+        <v>0.03983383897349313</v>
       </c>
       <c r="E12">
-        <v>0.06124463369459932</v>
+        <v>0.05611199187562388</v>
       </c>
       <c r="F12">
-        <v>1.098485205740204</v>
+        <v>0.978555841678471</v>
       </c>
       <c r="G12">
-        <v>0.9007984743589645</v>
+        <v>0.9061391593792933</v>
       </c>
       <c r="H12">
-        <v>0.05960702074145985</v>
+        <v>0.0590476639060995</v>
       </c>
       <c r="I12">
-        <v>0.01043736077696256</v>
+        <v>0.007869485704414814</v>
       </c>
       <c r="J12">
-        <v>0.5903555041268902</v>
+        <v>0.4398290852240478</v>
       </c>
       <c r="K12">
-        <v>0.4958464404742671</v>
+        <v>0.4064390311183992</v>
       </c>
       <c r="L12">
-        <v>0.1286094575994596</v>
+        <v>0.1564182427756666</v>
       </c>
       <c r="M12">
-        <v>2.585144820701828</v>
+        <v>0.1510173662403318</v>
       </c>
       <c r="N12">
-        <v>0.4405546379844623</v>
+        <v>0.1248163301776657</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.556065870207391</v>
       </c>
       <c r="P12">
-        <v>0.9100733332920559</v>
+        <v>0.4777878211474302</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8725873471852807</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049166667648876</v>
+        <v>0.9372902371750058</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03582636381118931</v>
+        <v>0.03531912378726432</v>
       </c>
       <c r="E13">
-        <v>0.06549520166233691</v>
+        <v>0.0609031634085575</v>
       </c>
       <c r="F13">
-        <v>0.9997657579142754</v>
+        <v>0.8951767736792391</v>
       </c>
       <c r="G13">
-        <v>0.8178737687469919</v>
+        <v>0.8244557773058006</v>
       </c>
       <c r="H13">
-        <v>0.1157156482447306</v>
+        <v>0.1150760604951131</v>
       </c>
       <c r="I13">
-        <v>0.01100040304203453</v>
+        <v>0.008238383535333682</v>
       </c>
       <c r="J13">
-        <v>0.5488708770732842</v>
+        <v>0.4172635996450538</v>
       </c>
       <c r="K13">
-        <v>0.4593802932536235</v>
+        <v>0.3813135467434492</v>
       </c>
       <c r="L13">
-        <v>0.1482350141375477</v>
+        <v>0.148321288546537</v>
       </c>
       <c r="M13">
-        <v>2.533161243721906</v>
+        <v>0.1401311567051842</v>
       </c>
       <c r="N13">
-        <v>0.3632501439058444</v>
+        <v>0.1459859404754269</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.502713903500108</v>
       </c>
       <c r="P13">
-        <v>0.9089106955075046</v>
+        <v>0.393015588148117</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8812322236526065</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9855218990224159</v>
+        <v>0.8863408587026527</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03301338397129605</v>
+        <v>0.03201816866619467</v>
       </c>
       <c r="E14">
-        <v>0.06974493367153656</v>
+        <v>0.06563361219400754</v>
       </c>
       <c r="F14">
-        <v>0.9275405120390445</v>
+        <v>0.8383942768725916</v>
       </c>
       <c r="G14">
-        <v>0.7558431528852196</v>
+        <v>0.7539764117556729</v>
       </c>
       <c r="H14">
-        <v>0.1654262691532296</v>
+        <v>0.1646915903375259</v>
       </c>
       <c r="I14">
-        <v>0.01176720985793267</v>
+        <v>0.008779513623850654</v>
       </c>
       <c r="J14">
-        <v>0.5187767094341211</v>
+        <v>0.4142874785905377</v>
       </c>
       <c r="K14">
-        <v>0.43641666378495</v>
+        <v>0.3668947746099285</v>
       </c>
       <c r="L14">
-        <v>0.1645583123146537</v>
+        <v>0.1440154148749428</v>
       </c>
       <c r="M14">
-        <v>2.462152366741009</v>
+        <v>0.1332755689883598</v>
       </c>
       <c r="N14">
-        <v>0.3086661418107326</v>
+        <v>0.163269104784824</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.43840741448534</v>
       </c>
       <c r="P14">
-        <v>0.9173131138001551</v>
+        <v>0.3343395952344252</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8939574618657424</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9627244707052967</v>
+        <v>0.8673957797105913</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03224707238159752</v>
+        <v>0.03106072083093459</v>
       </c>
       <c r="E15">
-        <v>0.07075698141858489</v>
+        <v>0.06685875281896791</v>
       </c>
       <c r="F15">
-        <v>0.9074977033661611</v>
+        <v>0.8242272523831105</v>
       </c>
       <c r="G15">
-        <v>0.7380521870996972</v>
+        <v>0.730450945558573</v>
       </c>
       <c r="H15">
-        <v>0.1781139640128657</v>
+        <v>0.1773317649495709</v>
       </c>
       <c r="I15">
-        <v>0.0122320225450121</v>
+        <v>0.00915769403438027</v>
       </c>
       <c r="J15">
-        <v>0.510578686300633</v>
+        <v>0.4187519940703623</v>
       </c>
       <c r="K15">
-        <v>0.431149237510251</v>
+        <v>0.3641501281228177</v>
       </c>
       <c r="L15">
-        <v>0.1683818356089404</v>
+        <v>0.143330636126425</v>
       </c>
       <c r="M15">
-        <v>2.429082347427197</v>
+        <v>0.1317060933903864</v>
       </c>
       <c r="N15">
-        <v>0.2944368137491864</v>
+        <v>0.1673793018099659</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.410189374961249</v>
       </c>
       <c r="P15">
-        <v>0.9223808976381456</v>
+        <v>0.3194439281330403</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8992256840664297</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9057432891768542</v>
+        <v>0.8166882224051335</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03116608656898912</v>
+        <v>0.02933433604955304</v>
       </c>
       <c r="E16">
-        <v>0.0676352730444254</v>
+        <v>0.06451424838095043</v>
       </c>
       <c r="F16">
-        <v>0.8902796643830868</v>
+        <v>0.8249399941546329</v>
       </c>
       <c r="G16">
-        <v>0.7185199085689078</v>
+        <v>0.6807956958835177</v>
       </c>
       <c r="H16">
-        <v>0.1663589659716536</v>
+        <v>0.1653242049838184</v>
       </c>
       <c r="I16">
-        <v>0.01384433137976604</v>
+        <v>0.01029062350027488</v>
       </c>
       <c r="J16">
-        <v>0.5055753613099654</v>
+        <v>0.4666515075936246</v>
       </c>
       <c r="K16">
-        <v>0.4367374588768733</v>
+        <v>0.3733786254668683</v>
       </c>
       <c r="L16">
-        <v>0.1596678358563608</v>
+        <v>0.1476214353499579</v>
       </c>
       <c r="M16">
-        <v>2.275265239143579</v>
+        <v>0.1333872154753006</v>
       </c>
       <c r="N16">
-        <v>0.278945274260451</v>
+        <v>0.1592062833072134</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.282755651306104</v>
       </c>
       <c r="P16">
-        <v>0.945718019447483</v>
+        <v>0.3063499995630252</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9159173068183861</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8953538172400499</v>
+        <v>0.8046276053193822</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03176472988501367</v>
+        <v>0.02966387733605913</v>
       </c>
       <c r="E17">
-        <v>0.06271235626443605</v>
+        <v>0.05965443753013844</v>
       </c>
       <c r="F17">
-        <v>0.915055312772374</v>
+        <v>0.8540464538232442</v>
       </c>
       <c r="G17">
-        <v>0.7362488723893819</v>
+        <v>0.6836224127519017</v>
       </c>
       <c r="H17">
-        <v>0.1291675522975453</v>
+        <v>0.1279884424408948</v>
       </c>
       <c r="I17">
-        <v>0.01470749878009947</v>
+        <v>0.01091143355919488</v>
       </c>
       <c r="J17">
-        <v>0.5176584894736607</v>
+        <v>0.5007433931468057</v>
       </c>
       <c r="K17">
-        <v>0.4528701950944871</v>
+        <v>0.3879022897209232</v>
       </c>
       <c r="L17">
-        <v>0.1437541529222415</v>
+        <v>0.1535134668874338</v>
       </c>
       <c r="M17">
-        <v>2.195383093544052</v>
+        <v>0.137942816092675</v>
       </c>
       <c r="N17">
-        <v>0.2953895175143799</v>
+        <v>0.1429348983774759</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.215501616139591</v>
       </c>
       <c r="P17">
-        <v>0.9590146745299286</v>
+        <v>0.3263855740523667</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9235220820879171</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9270044953046295</v>
+        <v>0.82708184296024</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03417898339713332</v>
+        <v>0.03186212409759293</v>
       </c>
       <c r="E18">
-        <v>0.05725673294892974</v>
+        <v>0.05366866477564347</v>
       </c>
       <c r="F18">
-        <v>0.9816789335351359</v>
+        <v>0.916673756258696</v>
       </c>
       <c r="G18">
-        <v>0.7904011329325158</v>
+        <v>0.726260054181239</v>
       </c>
       <c r="H18">
-        <v>0.07647275324320191</v>
+        <v>0.07526018034936754</v>
       </c>
       <c r="I18">
-        <v>0.01459432767518098</v>
+        <v>0.01070634403730253</v>
       </c>
       <c r="J18">
-        <v>0.5469166846483517</v>
+        <v>0.5371302738797539</v>
       </c>
       <c r="K18">
-        <v>0.4826293157603949</v>
+        <v>0.4114782348667951</v>
       </c>
       <c r="L18">
-        <v>0.1232576020343501</v>
+        <v>0.1626028988122563</v>
       </c>
       <c r="M18">
-        <v>2.16794915727067</v>
+        <v>0.1463371237940283</v>
       </c>
       <c r="N18">
-        <v>0.3426510760820776</v>
+        <v>0.1212152036078251</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.196208848900255</v>
       </c>
       <c r="P18">
-        <v>0.9688087778525176</v>
+        <v>0.3799478629821067</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.9264092483802937</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.984199794583958</v>
+        <v>0.8699475707056479</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03829415837702754</v>
+        <v>0.03575351872809662</v>
       </c>
       <c r="E19">
-        <v>0.05429247078970212</v>
+        <v>0.04966240032739133</v>
       </c>
       <c r="F19">
-        <v>1.075982805367232</v>
+        <v>1.001601917336686</v>
       </c>
       <c r="G19">
-        <v>0.8683763746430913</v>
+        <v>0.7934666600637712</v>
       </c>
       <c r="H19">
-        <v>0.03080400931442284</v>
+        <v>0.02967336933430431</v>
       </c>
       <c r="I19">
-        <v>0.01429600409432119</v>
+        <v>0.01055462216880798</v>
       </c>
       <c r="J19">
-        <v>0.5869092064154415</v>
+        <v>0.5758994075404615</v>
       </c>
       <c r="K19">
-        <v>0.5210975813006833</v>
+        <v>0.4405403244429067</v>
       </c>
       <c r="L19">
-        <v>0.1064719374860879</v>
+        <v>0.1735445875172381</v>
       </c>
       <c r="M19">
-        <v>2.18689637819088</v>
+        <v>0.1571505709123109</v>
       </c>
       <c r="N19">
-        <v>0.4179986417749575</v>
+        <v>0.1023127925900233</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.221350089924641</v>
       </c>
       <c r="P19">
-        <v>0.9799753386572723</v>
+        <v>0.4641889023855583</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.9291548361982702</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.124055722248528</v>
+        <v>0.9799898074388977</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04707467676648491</v>
+        <v>0.04449033277553482</v>
       </c>
       <c r="E20">
-        <v>0.05762878961264351</v>
+        <v>0.05079629202955682</v>
       </c>
       <c r="F20">
-        <v>1.251826829925363</v>
+        <v>1.151896288423742</v>
       </c>
       <c r="G20">
-        <v>1.017113596298557</v>
+        <v>0.9338413696830514</v>
       </c>
       <c r="H20">
-        <v>0.002872538574104411</v>
+        <v>0.002099035288469775</v>
       </c>
       <c r="I20">
-        <v>0.01242731133286501</v>
+        <v>0.009279685973393903</v>
       </c>
       <c r="J20">
-        <v>0.6589472241631</v>
+        <v>0.6212313784538566</v>
       </c>
       <c r="K20">
-        <v>0.5868705418033926</v>
+        <v>0.4866519010761863</v>
       </c>
       <c r="L20">
-        <v>0.09823002066685582</v>
+        <v>0.1891722246501075</v>
       </c>
       <c r="M20">
-        <v>2.331123997243537</v>
+        <v>0.1764906489704146</v>
       </c>
       <c r="N20">
-        <v>0.5656151108683503</v>
+        <v>0.08964175909786043</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.367412321144627</v>
       </c>
       <c r="P20">
-        <v>0.9924846874295028</v>
+        <v>0.6275688806139925</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.9267017515991307</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.268384282199946</v>
+        <v>1.102604280084932</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05189939471073757</v>
+        <v>0.05228393985960622</v>
       </c>
       <c r="E21">
-        <v>0.06223408989026735</v>
+        <v>0.05495902729865998</v>
       </c>
       <c r="F21">
-        <v>1.344338708972529</v>
+        <v>1.192352618088307</v>
       </c>
       <c r="G21">
-        <v>1.103448612258589</v>
+        <v>1.091381836191204</v>
       </c>
       <c r="H21">
-        <v>0.001165127677301037</v>
+        <v>0.0007960074981232523</v>
       </c>
       <c r="I21">
-        <v>0.009702189803028283</v>
+        <v>0.007474333550018919</v>
       </c>
       <c r="J21">
-        <v>0.6933961488833091</v>
+        <v>0.515855453882736</v>
       </c>
       <c r="K21">
-        <v>0.6001918923189251</v>
+        <v>0.4815340931342007</v>
       </c>
       <c r="L21">
-        <v>0.1052448022267818</v>
+        <v>0.1824331260768481</v>
       </c>
       <c r="M21">
-        <v>2.634913583666986</v>
+        <v>0.1811043093910385</v>
       </c>
       <c r="N21">
-        <v>0.6459887748481066</v>
+        <v>0.09531755616331594</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.618633662366136</v>
       </c>
       <c r="P21">
-        <v>0.9526427955699166</v>
+        <v>0.7050509008028314</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.8831361263373417</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.362365796269671</v>
+        <v>1.182975356552447</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05472371729024417</v>
+        <v>0.05748787532739641</v>
       </c>
       <c r="E22">
-        <v>0.06508049991636788</v>
+        <v>0.05770333198391064</v>
       </c>
       <c r="F22">
-        <v>1.401185026877542</v>
+        <v>1.212719157883839</v>
       </c>
       <c r="G22">
-        <v>1.157400844251455</v>
+        <v>1.201821914605375</v>
       </c>
       <c r="H22">
-        <v>0.0005244813107914137</v>
+        <v>0.0003346026413904024</v>
       </c>
       <c r="I22">
-        <v>0.007867914602764259</v>
+        <v>0.006093324990881221</v>
       </c>
       <c r="J22">
-        <v>0.7147463655736317</v>
+        <v>0.4475926091864437</v>
       </c>
       <c r="K22">
-        <v>0.6081151729200229</v>
+        <v>0.4770575947002804</v>
       </c>
       <c r="L22">
-        <v>0.1100146044333936</v>
+        <v>0.1777775931367422</v>
       </c>
       <c r="M22">
-        <v>2.830258728952003</v>
+        <v>0.1839585396693231</v>
       </c>
       <c r="N22">
-        <v>0.6903954815215343</v>
+        <v>0.09939607010574747</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.77456256494591</v>
       </c>
       <c r="P22">
-        <v>0.9266541581232399</v>
+        <v>0.745837007557526</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.8553676031535866</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.31676783201118</v>
+        <v>1.143943351839312</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05325454652207284</v>
+        <v>0.05432163746595364</v>
       </c>
       <c r="E23">
-        <v>0.06363398952626298</v>
+        <v>0.05624104936962526</v>
       </c>
       <c r="F23">
-        <v>1.373496214041623</v>
+        <v>1.208565001943029</v>
       </c>
       <c r="G23">
-        <v>1.131014555442746</v>
+        <v>1.134971068230186</v>
       </c>
       <c r="H23">
-        <v>0.0008301929496028482</v>
+        <v>0.0005489906265947475</v>
       </c>
       <c r="I23">
-        <v>0.00846653873708636</v>
+        <v>0.006391901945930201</v>
       </c>
       <c r="J23">
-        <v>0.7045667430608518</v>
+        <v>0.4972524326489776</v>
       </c>
       <c r="K23">
-        <v>0.6060627563209948</v>
+        <v>0.4822828787287996</v>
       </c>
       <c r="L23">
-        <v>0.1074782935979863</v>
+        <v>0.1811920841690728</v>
       </c>
       <c r="M23">
-        <v>2.724206373372596</v>
+        <v>0.1835943432089771</v>
       </c>
       <c r="N23">
-        <v>0.6647200941040126</v>
+        <v>0.09725351453286102</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.696396229600026</v>
       </c>
       <c r="P23">
-        <v>0.9414656280321427</v>
+        <v>0.7236254506942146</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.870899286325288</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.136323842338612</v>
+        <v>0.9900256385357693</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04768790656514454</v>
+        <v>0.04505597206741996</v>
       </c>
       <c r="E24">
-        <v>0.05811826635680051</v>
+        <v>0.05108386727604719</v>
       </c>
       <c r="F24">
-        <v>1.266517552451916</v>
+        <v>1.16535052593045</v>
       </c>
       <c r="G24">
-        <v>1.029500134037036</v>
+        <v>0.9442344392632265</v>
       </c>
       <c r="H24">
-        <v>0.002677662656162205</v>
+        <v>0.001917319220604674</v>
       </c>
       <c r="I24">
-        <v>0.01181075880843441</v>
+        <v>0.008583209636961797</v>
       </c>
       <c r="J24">
-        <v>0.6653153867193282</v>
+        <v>0.6280678627503988</v>
       </c>
       <c r="K24">
-        <v>0.5951759704319812</v>
+        <v>0.4932160454876886</v>
       </c>
       <c r="L24">
-        <v>0.09798843992172124</v>
+        <v>0.1916412506241123</v>
       </c>
       <c r="M24">
-        <v>2.327820185132964</v>
+        <v>0.1789304488814203</v>
       </c>
       <c r="N24">
-        <v>0.5714977378903399</v>
+        <v>0.08894844333929086</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.36515043454142</v>
       </c>
       <c r="P24">
-        <v>0.9972650454136804</v>
+        <v>0.6345680923865871</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.9295393116411548</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9410529437253103</v>
+        <v>0.8247506093084098</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04178571546712462</v>
+        <v>0.0393969625599695</v>
       </c>
       <c r="E25">
-        <v>0.05229676416008111</v>
+        <v>0.04602738148933461</v>
       </c>
       <c r="F25">
-        <v>1.155732532297407</v>
+        <v>1.074572590616782</v>
       </c>
       <c r="G25">
-        <v>0.9248282961291494</v>
+        <v>0.8481552739195308</v>
       </c>
       <c r="H25">
-        <v>0.006004142454520689</v>
+        <v>0.004583905310598713</v>
       </c>
       <c r="I25">
-        <v>0.01646321156521235</v>
+        <v>0.011867202593419</v>
       </c>
       <c r="J25">
-        <v>0.6256735006835186</v>
+        <v>0.6047529504110685</v>
       </c>
       <c r="K25">
-        <v>0.584410822932071</v>
+        <v>0.4931313152073002</v>
       </c>
       <c r="L25">
-        <v>0.08795414111780264</v>
+        <v>0.1990423236690972</v>
       </c>
       <c r="M25">
-        <v>1.904575267848486</v>
+        <v>0.1707507499940562</v>
       </c>
       <c r="N25">
-        <v>0.4724478024142797</v>
+        <v>0.07923803443174471</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.937896977871873</v>
       </c>
       <c r="P25">
-        <v>1.060103229632794</v>
+        <v>0.523874396497277</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9907783749683841</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
